--- a/data/LCA.xlsx
+++ b/data/LCA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnergyDevelopment_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68823686-5EB9-4E62-9116-CF2009EB3821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D6674A-6F38-48EE-9B5C-87D7AD3F5799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCGT" sheetId="1" r:id="rId1"/>
+    <sheet name="LCA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Table 1: CCGT Life Cycle Analysis Emissions Rate</t>
   </si>
@@ -98,9 +98,6 @@
       </rPr>
       <t>x</t>
     </r>
-  </si>
-  <si>
-    <t>(lb/MWh)</t>
   </si>
   <si>
     <r>
@@ -185,14 +182,123 @@
     <t>Table 2: CCGT Life Cycle Analysis Annual Emissions</t>
   </si>
   <si>
-    <t>(lb/year)</t>
+    <t>(gal/MWh)</t>
+  </si>
+  <si>
+    <t>Slide 23</t>
+  </si>
+  <si>
+    <t>slide 24</t>
+  </si>
+  <si>
+    <t>Water Consumption*</t>
+  </si>
+  <si>
+    <t>Water Withdrawl*</t>
+  </si>
+  <si>
+    <t>* Assumed recirculating cooling (cooling towers)</t>
+  </si>
+  <si>
+    <t>(10^6 gal/year)</t>
+  </si>
+  <si>
+    <t>Table 3: CCGT Life Cycle Analysis Water Consumption and Withdrawl [3]</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>(MW)</t>
+  </si>
+  <si>
+    <t>XIT Ranch</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Project Area</t>
+  </si>
+  <si>
+    <t>(acres)</t>
+  </si>
+  <si>
+    <t>Season Factors</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Non-Summer</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Rest of Year</t>
+  </si>
+  <si>
+    <t>Summer Peak</t>
+  </si>
+  <si>
+    <t>Summer Off-peak</t>
+  </si>
+  <si>
+    <t>WTC</t>
+  </si>
+  <si>
+    <t>Lavaca</t>
+  </si>
+  <si>
+    <t>Coastal Wind</t>
+  </si>
+  <si>
+    <t>CO2-eq</t>
+  </si>
+  <si>
+    <t>(g CO2 eq/ kWh)</t>
+  </si>
+  <si>
+    <t>slide 38/ 39</t>
+  </si>
+  <si>
+    <t>(kg CO2 eq/year)</t>
+  </si>
+  <si>
+    <t>Table 4: Renewables Life Cycle Analysis [4]</t>
+  </si>
+  <si>
+    <t>(s.t./year)</t>
+  </si>
+  <si>
+    <t>(lb/MMBtu)</t>
+  </si>
+  <si>
+    <t>0.15 / 0.0075</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +339,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -333,11 +445,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,6 +630,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -372,8 +648,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,350 +1020,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27891372-5872-4E4D-8E46-0ACC3C9C1CC7}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="J1" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6800</v>
+      </c>
+      <c r="F5" s="5">
+        <v>600</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>117</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6800</v>
+      </c>
+      <c r="O5" s="5">
+        <v>600</v>
+      </c>
+      <c r="P5" s="7">
+        <f>$D5*8760*$F5*G5/2000</f>
+        <v>5.2625699999999993</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>$D5*8760*$F5*H5/2000</f>
+        <v>0.51924024000000002</v>
+      </c>
+      <c r="R5" s="7">
+        <f>$D5*8760*$F5*I5/2000</f>
+        <v>82096.092000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.314</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>460</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>117</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.314</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6400</v>
+      </c>
+      <c r="O6" s="5">
+        <v>460</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:P8" si="0">$D6*8760*$F6*G6/2000</f>
+        <v>4.7448539999999992</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6:Q8" si="1">$D6*8760*$F6*H6/2000</f>
+        <v>0.46815892799999992</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" ref="R6:R8" si="2">$D6*8760*$F6*I6/2000</f>
+        <v>74019.722399999984</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>405</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>117</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6200</v>
+      </c>
+      <c r="O7" s="5">
+        <v>405</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5766619999999998</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45156398399999997</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="2"/>
+        <v>71395.927200000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>942</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>117</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5">
+        <v>942</v>
+      </c>
+      <c r="P8" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32058709199999996</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="2"/>
+        <v>50687.418600000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="2:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="Q13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="Q14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>600</v>
+      </c>
+      <c r="F15" s="5">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7">
+        <f>$D15*8760*$E15*F15/10^6</f>
+        <v>280.67039999999997</v>
+      </c>
+      <c r="H15" s="5">
+        <v>250</v>
+      </c>
+      <c r="I15" s="7">
+        <f>$D15*8760*$E15*H15/10^6</f>
+        <v>350.83800000000002</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.314</v>
+      </c>
+      <c r="E16" s="5">
+        <v>460</v>
+      </c>
+      <c r="F16" s="5">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" ref="G16:G18" si="3">$D16*8760*$E16*F16/10^6</f>
+        <v>253.05887999999996</v>
+      </c>
+      <c r="H16" s="5">
+        <v>250</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" ref="I16:I18" si="4">$D16*8760*$E16*H16/10^6</f>
+        <v>316.3236</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E17" s="5">
+        <v>405</v>
+      </c>
+      <c r="F17" s="5">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="3"/>
+        <v>244.08864</v>
+      </c>
+      <c r="H17" s="5">
+        <v>250</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>305.11079999999998</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="E18" s="5">
+        <v>942</v>
+      </c>
+      <c r="F18" s="5">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="3"/>
+        <v>173.29032000000001</v>
+      </c>
+      <c r="H18" s="5">
+        <v>250</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="4"/>
+        <v>216.6129</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="30">
+        <f>R15*(22/24)</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="Q19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="30">
+        <f>R14-R20</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="30">
+        <f>R14*(8/24)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="32">
+        <f>R15-R18</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6800</v>
-      </c>
-      <c r="E4" s="5">
-        <v>600</v>
-      </c>
-      <c r="F4" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>821.096</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="M4" s="5">
-        <v>6800</v>
-      </c>
-      <c r="N4" s="5">
-        <v>600</v>
-      </c>
-      <c r="O4" s="12">
-        <f>$C4*8670*$E4*F4/2000</f>
-        <v>52.779492000000005</v>
-      </c>
-      <c r="P4" s="12">
-        <f t="shared" ref="P4:Q7" si="0">$C4*8670*$E4*G4/2000</f>
-        <v>2.7778680000000002</v>
-      </c>
-      <c r="Q4" s="12">
-        <f t="shared" si="0"/>
-        <v>570224.07583200012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="35">
+        <f>R15*0.203+R14*0.702</f>
+        <v>0.32774999999999999</v>
+      </c>
+      <c r="E25" s="19">
+        <v>250</v>
+      </c>
+      <c r="F25" s="19">
+        <v>8000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>55</v>
+      </c>
+      <c r="H25" s="20">
+        <f>D25*E25*8760*G25/(10^6)</f>
+        <v>39.477487500000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="35">
+        <f>0.53*R18+0.342*R19+0.49*R20+0.53*R21</f>
+        <v>0.49533333333333335</v>
+      </c>
+      <c r="E26" s="19">
+        <v>250</v>
+      </c>
+      <c r="F26" s="19">
+        <v>38000</v>
+      </c>
+      <c r="G26" s="19">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.314</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6400</v>
-      </c>
-      <c r="E5" s="5">
-        <v>460</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1377.1759999999999</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H26" s="20">
+        <f t="shared" ref="H26:H28" si="5">D26*E26*8760*G26/(10^6)</f>
+        <v>14.10214</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="35">
+        <f>0.498*R15+0.435*R19+0.456*R20</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E27" s="19">
+        <v>200</v>
+      </c>
+      <c r="F27" s="19">
+        <v>20000</v>
+      </c>
+      <c r="G27" s="19">
         <v>13</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.314</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6400</v>
-      </c>
-      <c r="N5" s="5">
-        <v>460</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" ref="O5:O7" si="1">$C5*8670*$E5*F5/2000</f>
-        <v>526.58996339999999</v>
-      </c>
-      <c r="P5" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3830318000000004</v>
-      </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="0"/>
-        <v>862315.17174239992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6200</v>
-      </c>
-      <c r="E6" s="5">
-        <v>405</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.499</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1465.011</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="M6" s="5">
-        <v>6200</v>
-      </c>
-      <c r="N6" s="5">
-        <v>405</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="1"/>
-        <v>301.37214779999999</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" si="0"/>
-        <v>4.2276654000000002</v>
-      </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="0"/>
-        <v>884796.61647419992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.105</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
-        <v>942</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.115</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>914.01400000000001</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.105</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="5">
-        <v>942</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="1"/>
-        <v>49.309107750000003</v>
-      </c>
-      <c r="P7" s="12">
-        <f t="shared" si="0"/>
-        <v>2.1438742500000001</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="0"/>
-        <v>391906.21574790002</v>
+      <c r="H27" s="20">
+        <f t="shared" si="5"/>
+        <v>11.023584</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="35">
+        <f>0.454*R15+0.419*R19+0.428*R20</f>
+        <v>0.44600000000000006</v>
+      </c>
+      <c r="E28" s="19">
+        <v>150</v>
+      </c>
+      <c r="F28" s="19">
+        <v>20000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>13</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="5"/>
+        <v>7.6185720000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+  <mergeCells count="24">
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/LCA.xlsx
+++ b/data/LCA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnergyDevelopment_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D6674A-6F38-48EE-9B5C-87D7AD3F5799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C77D6C-D1B4-40A7-9061-85EB044E2E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="1" r:id="rId1"/>
+    <sheet name="Capacity Factors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>Table 1: CCGT Life Cycle Analysis Emissions Rate</t>
   </si>
@@ -287,7 +288,7 @@
     <t>(lb/MMBtu)</t>
   </si>
   <si>
-    <t>0.15 / 0.0075</t>
+    <t>Raw CF</t>
   </si>
 </sst>
 </file>
@@ -295,8 +296,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -633,77 +634,77 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27891372-5872-4E4D-8E46-0ACC3C9C1CC7}">
-  <dimension ref="B1:R28"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,41 +1041,41 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1086,19 +1087,19 @@
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -1112,13 +1113,13 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1128,13 +1129,13 @@
       <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="3" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>460</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" ref="P6:P8" si="0">$D6*8760*$F6*G6/2000</f>
+        <f t="shared" ref="P6:P7" si="0">$D6*8760*$F6*G6/2000</f>
         <v>4.7448539999999992</v>
       </c>
       <c r="Q6" s="7">
@@ -1314,14 +1315,14 @@
       <c r="D8" s="6">
         <v>0.105</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>16</v>
+      <c r="E8" s="8">
+        <v>8840</v>
       </c>
       <c r="F8" s="5">
         <v>942</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>53</v>
+      <c r="G8" s="8">
+        <v>0.15</v>
       </c>
       <c r="H8" s="5">
         <v>7.3999999999999999E-4</v>
@@ -1338,15 +1339,15 @@
       <c r="M8" s="6">
         <v>0.105</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="5">
         <v>942</v>
       </c>
-      <c r="P8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="P8" s="7">
+        <f>$D8*8760*$F8*G8/2000</f>
+        <v>64.983869999999996</v>
       </c>
       <c r="Q8" s="7">
         <f t="shared" si="1"/>
@@ -1357,427 +1358,528 @@
         <v>50687.418600000005</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+    <row r="9" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8840</v>
+      </c>
+      <c r="F9" s="5">
+        <v>942</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>117</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="5">
+        <v>942</v>
+      </c>
+      <c r="P9" s="7">
+        <f>$D9*8760*$F9*G9/2000</f>
+        <v>3.2491935000000001</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" ref="Q9" si="3">$D9*8760*$F9*H9/2000</f>
+        <v>0.32058709199999996</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" ref="R9" si="4">$D9*8760*$F9*I9/2000</f>
+        <v>50687.418600000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="Q13" s="33" t="s">
+      <c r="I14" s="38"/>
+      <c r="Q14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="2" t="s">
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="3" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="Q14" s="29" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="Q15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R15" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E15" s="5">
-        <v>600</v>
-      </c>
-      <c r="F15" s="5">
-        <v>200</v>
-      </c>
-      <c r="G15" s="7">
-        <f>$D15*8760*$E15*F15/10^6</f>
-        <v>280.67039999999997</v>
-      </c>
-      <c r="H15" s="5">
-        <v>250</v>
-      </c>
-      <c r="I15" s="7">
-        <f>$D15*8760*$E15*H15/10^6</f>
-        <v>350.83800000000002</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>0.314</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E16" s="5">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="F16" s="5">
         <v>200</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ref="G16:G18" si="3">$D16*8760*$E16*F16/10^6</f>
-        <v>253.05887999999996</v>
+        <f>$D16*8760*$E16*F16/10^6</f>
+        <v>280.67039999999997</v>
       </c>
       <c r="H16" s="5">
         <v>250</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" ref="I16:I18" si="4">$D16*8760*$E16*H16/10^6</f>
-        <v>316.3236</v>
+        <f>$D16*8760*$E16*H16/10^6</f>
+        <v>350.83800000000002</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="6">
-        <v>0.34399999999999997</v>
+        <v>0.314</v>
       </c>
       <c r="E17" s="5">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="F17" s="5">
         <v>200</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="3"/>
-        <v>244.08864</v>
+        <f t="shared" ref="G17:G19" si="5">$D17*8760*$E17*F17/10^6</f>
+        <v>253.05887999999996</v>
       </c>
       <c r="H17" s="5">
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="4"/>
-        <v>305.11079999999998</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="34"/>
+        <f t="shared" ref="I17:I19" si="6">$D17*8760*$E17*H17/10^6</f>
+        <v>316.3236</v>
+      </c>
     </row>
     <row r="18" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6">
-        <v>0.105</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E18" s="5">
-        <v>942</v>
+        <v>405</v>
       </c>
       <c r="F18" s="5">
         <v>200</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="3"/>
-        <v>173.29032000000001</v>
+        <f t="shared" si="5"/>
+        <v>244.08864</v>
       </c>
       <c r="H18" s="5">
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>305.11079999999998</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="E19" s="5">
+        <v>942</v>
+      </c>
+      <c r="F19" s="5">
+        <v>200</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="5"/>
+        <v>173.29032000000001</v>
+      </c>
+      <c r="H19" s="5">
+        <v>250</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="6"/>
         <v>216.6129</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="30">
-        <f>R15*(22/24)</f>
+      <c r="R19" s="13">
+        <f>R16*(22/24)</f>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+    <row r="20" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="Q19" s="29" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="Q20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="30">
-        <f>R14-R20</f>
+      <c r="R20" s="13">
+        <f>R15-R21</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q20" s="29" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="30">
-        <f>R14*(8/24)</f>
+      <c r="R21" s="13">
+        <f>R15*(8/24)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="32">
-        <f>R15-R18</f>
+      <c r="R22" s="15">
+        <f>R16-R19</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="25" t="s">
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="35">
-        <f>R15*0.203+R14*0.702</f>
+      <c r="D26" s="16">
+        <f>R16*0.203+R15*0.702</f>
         <v>0.32774999999999999</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="9">
         <v>250</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="9">
         <v>8000</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G26" s="9">
         <v>55</v>
       </c>
-      <c r="H25" s="20">
-        <f>D25*E25*8760*G25/(10^6)</f>
+      <c r="H26" s="10">
+        <f>D26*E26*8760*G26/(10^6)</f>
         <v>39.477487500000002</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="35">
-        <f>0.53*R18+0.342*R19+0.49*R20+0.53*R21</f>
+      <c r="D27" s="16">
+        <f>0.53*R19+0.342*R20+0.49*R21+0.53*R22</f>
         <v>0.49533333333333335</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="9">
         <v>250</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F27" s="9">
         <v>38000</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G27" s="9">
         <v>13</v>
       </c>
-      <c r="H26" s="20">
-        <f t="shared" ref="H26:H28" si="5">D26*E26*8760*G26/(10^6)</f>
+      <c r="H27" s="10">
+        <f t="shared" ref="H27:H29" si="7">D27*E27*8760*G27/(10^6)</f>
         <v>14.10214</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35">
-        <f>0.498*R15+0.435*R19+0.456*R20</f>
+      <c r="D28" s="16">
+        <f>0.498*R16+0.435*R20+0.456*R21</f>
         <v>0.48399999999999999</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="9">
         <v>200</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="9">
         <v>20000</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="9">
         <v>13</v>
       </c>
-      <c r="H27" s="20">
-        <f t="shared" si="5"/>
+      <c r="H28" s="10">
+        <f t="shared" si="7"/>
         <v>11.023584</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="35">
-        <f>0.454*R15+0.419*R19+0.428*R20</f>
+      <c r="D29" s="16">
+        <f>0.454*R16+0.419*R20+0.428*R21</f>
         <v>0.44600000000000006</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="9">
         <v>150</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="9">
         <v>20000</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="9">
         <v>13</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" si="5"/>
+      <c r="H29" s="10">
+        <f t="shared" si="7"/>
         <v>7.6185720000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564981C-E4C1-4223-BBB8-B7B238FE5FB5}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/LCA.xlsx
+++ b/data/LCA.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnergyDevelopment_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C77D6C-D1B4-40A7-9061-85EB044E2E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B935DEC-6EBF-47D6-BA45-863453681812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
+    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="1" r:id="rId1"/>
     <sheet name="Capacity Factors" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphing" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graphing!$A$2:$N$424</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="64">
   <si>
     <t>Table 1: CCGT Life Cycle Analysis Emissions Rate</t>
   </si>
@@ -290,6 +294,36 @@
   <si>
     <t>Raw CF</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LZ_CPS</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>LMP</t>
+  </si>
+  <si>
+    <t>Marginal Price</t>
+  </si>
+  <si>
+    <t>Total Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Deadicated Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Weighted Capacity</t>
+  </si>
+  <si>
+    <t>Raw Capacity Factor</t>
+  </si>
+  <si>
+    <t>Adjusted Capacity Factor</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +333,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,16 +380,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -450,21 +516,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -510,36 +561,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -607,11 +628,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,54 +720,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -707,9 +763,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,6 +875,1774 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CCGT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Operations on 01/05/2011</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphing!$G$3:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2083333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2916666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13541666666666699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14583333333333301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17708333333333301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19791666666666699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22916666666666699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23958333333333301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26041666666666702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27083333333333298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30208333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32291666666666702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35416666666666702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36458333333333298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38541666666666702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39583333333333298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42708333333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44791666666666702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47916666666666702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48958333333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57291666666666696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphing!$K$3:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1560.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>753.77</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114.93</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45.56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.97</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.84</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.69</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A101-4B5F-AFED-8D8D997B6981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Marginal Price</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphing!$G$3:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2083333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2916666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13541666666666699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14583333333333301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17708333333333301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19791666666666699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22916666666666699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23958333333333301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26041666666666702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27083333333333298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30208333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32291666666666702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35416666666666702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36458333333333298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38541666666666702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39583333333333298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42708333333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44791666666666702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47916666666666702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48958333333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57291666666666696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphing!$M$2:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.249180000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A101-4B5F-AFED-8D8D997B6981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1818217199"/>
+        <c:axId val="1972538191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1818217199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1972538191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1972538191"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Price ($/MWh)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818217199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC46122-1B9E-440A-804C-7F3318C4434F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,132 +2942,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27891372-5872-4E4D-8E46-0ACC3C9C1CC7}">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-    </row>
-    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="O3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="P3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+    </row>
+    <row r="4" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1156,50 +3086,55 @@
       <c r="D5" s="6">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
+        <f>'Capacity Factors'!G3</f>
+        <v>0.37084166666666668</v>
+      </c>
+      <c r="F5" s="5">
         <v>6800</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>600</v>
       </c>
-      <c r="G5" s="5">
-        <v>7.4999999999999997E-3</v>
-      </c>
       <c r="H5" s="5">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="I5" s="5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>117</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
+        <f>E5</f>
+        <v>0.37084166666666668</v>
+      </c>
+      <c r="O5" s="5">
         <v>6800</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>600</v>
       </c>
-      <c r="P5" s="7">
-        <f>$D5*8760*$F5*G5/2000</f>
-        <v>5.2625699999999993</v>
-      </c>
       <c r="Q5" s="7">
-        <f>$D5*8760*$F5*H5/2000</f>
-        <v>0.51924024000000002</v>
+        <f>$N5*8670*$G5*H5*F5/(2000*10^3)</f>
+        <v>149.54525449200003</v>
       </c>
       <c r="R5" s="7">
-        <f>$D5*8760*$F5*I5/2000</f>
+        <f>$N5*8670*$G5*I5*F5/(2000/10^3)</f>
+        <v>4853661.7686000001</v>
+      </c>
+      <c r="S5" s="7">
+        <f>$D5*8760*$G5*J5/2000</f>
         <v>82096.092000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1209,50 +3144,55 @@
       <c r="D6" s="6">
         <v>0.314</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
+        <f>'Capacity Factors'!G4</f>
+        <v>0.44076086956521743</v>
+      </c>
+      <c r="F6" s="5">
         <v>6400</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>460</v>
       </c>
-      <c r="G6" s="5">
-        <v>7.4999999999999997E-3</v>
-      </c>
       <c r="H6" s="5">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="I6" s="5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>117</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6">
-        <v>0.314</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N9" si="0">E6</f>
+        <v>0.44076086956521743</v>
+      </c>
+      <c r="O6" s="5">
         <v>6400</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>460</v>
       </c>
-      <c r="P6" s="7">
-        <f t="shared" ref="P6:P7" si="0">$D6*8760*$F6*G6/2000</f>
-        <v>4.7448539999999992</v>
-      </c>
       <c r="Q6" s="7">
-        <f t="shared" ref="Q6:Q8" si="1">$D6*8760*$F6*H6/2000</f>
-        <v>0.46815892799999992</v>
+        <f t="shared" ref="Q6:Q9" si="1">$N6*8670*$G6*H6*F6/(2000*10^3)</f>
+        <v>128.2521888</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R8" si="2">$D6*8760*$F6*I6/2000</f>
+        <f t="shared" ref="R6:R9" si="2">$N6*8670*$G6*I6/2000</f>
+        <v>0.65040172499999993</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" ref="S6:S8" si="3">$D6*8760*$G6*J6/2000</f>
         <v>74019.722399999984</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1262,50 +3202,55 @@
       <c r="D7" s="6">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
+        <f>'Capacity Factors'!G5</f>
+        <v>0.48167901234567895</v>
+      </c>
+      <c r="F7" s="5">
         <v>6200</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>405</v>
       </c>
-      <c r="G7" s="5">
-        <v>7.4999999999999997E-3</v>
-      </c>
       <c r="H7" s="5">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="I7" s="5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>117</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="6">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.48167901234567895</v>
+      </c>
+      <c r="O7" s="5">
         <v>6200</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>405</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>4.5766619999999998</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="1"/>
-        <v>0.45156398399999997</v>
+        <v>119.54416564799999</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="2"/>
+        <v>0.62579713199999976</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="3"/>
         <v>71395.927200000006</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1315,50 +3260,55 @@
       <c r="D8" s="6">
         <v>0.105</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
+        <f>'Capacity Factors'!G6</f>
+        <v>0.18575902335456473</v>
+      </c>
+      <c r="F8" s="8">
         <v>8840</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>942</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>0.15</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>117</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="6">
-        <v>0.105</v>
-      </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18575902335456473</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>942</v>
       </c>
-      <c r="P8" s="7">
-        <f>$D8*8760*$F8*G8/2000</f>
-        <v>64.983869999999996</v>
-      </c>
       <c r="Q8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32058709199999996</v>
+        <f>$N8*8670*$G8*H8*F8/(2000*10^3)</f>
+        <v>1005.8505268499998</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="2"/>
+        <f>$N8*8670*$G8*I8/2000</f>
+        <v>0.56133438149999981</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="3"/>
         <v>50687.418600000005</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1368,103 +3318,109 @@
       <c r="D9" s="6">
         <v>0.105</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
+        <f>'Capacity Factors'!G7</f>
+        <v>0.18575902335456473</v>
+      </c>
+      <c r="F9" s="8">
         <v>8840</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>942</v>
       </c>
-      <c r="G9" s="8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="I9" s="5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>117</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="6">
-        <v>0.105</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18575902335456473</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>942</v>
       </c>
-      <c r="P9" s="7">
-        <f>$D9*8760*$F9*G9/2000</f>
-        <v>3.2491935000000001</v>
-      </c>
       <c r="Q9" s="7">
-        <f t="shared" ref="Q9" si="3">$D9*8760*$F9*H9/2000</f>
-        <v>0.32058709199999996</v>
+        <f t="shared" si="1"/>
+        <v>152.88928008119998</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" ref="R9" si="4">$D9*8760*$F9*I9/2000</f>
+        <f t="shared" si="2"/>
+        <v>0.56133438149999981</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" ref="S9" si="4">$D9*8760*$G9*J9/2000</f>
         <v>50687.418600000005</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+    <row r="13" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="30"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="2:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="Q14" s="20" t="s">
+      <c r="I14" s="29"/>
+      <c r="R14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1477,16 +3433,16 @@
       <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="Q15" s="12" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="R15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="13">
+      <c r="S15" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1513,14 +3469,14 @@
         <f>$D16*8760*$E16*H16/10^6</f>
         <v>350.83800000000002</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="R16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="15">
+      <c r="S16" s="15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1537,18 +3493,18 @@
         <v>200</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:G19" si="5">$D17*8760*$E17*F17/10^6</f>
+        <f>$D17*8760*$E17*F17/10^6</f>
         <v>253.05887999999996</v>
       </c>
       <c r="H17" s="5">
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" ref="I17:I19" si="6">$D17*8760*$E17*H17/10^6</f>
+        <f>$D17*8760*$E17*H17/10^6</f>
         <v>316.3236</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1565,132 +3521,134 @@
         <v>200</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="5"/>
+        <f>$D18*8760*$E18*F18/10^6</f>
         <v>244.08864</v>
       </c>
       <c r="H18" s="5">
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="6"/>
+        <f>$D18*8760*$E18*H18/10^6</f>
         <v>305.11079999999998</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="53">
         <v>0.105</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="52">
         <v>942</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="52">
         <v>200</v>
       </c>
-      <c r="G19" s="7">
-        <f t="shared" si="5"/>
+      <c r="G19" s="54">
+        <f>$D19*8760*$E19*F19/10^6</f>
         <v>173.29032000000001</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="52">
         <v>250</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="6"/>
+      <c r="I19" s="54">
+        <f>$D19*8760*$E19*H19/10^6</f>
         <v>216.6129</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="R19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R19" s="13">
-        <f>R16*(22/24)</f>
+      <c r="S19" s="13">
+        <f>S16*(22/24)</f>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="Q20" s="12" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="50"/>
+      <c r="R20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R20" s="13">
-        <f>R15-R21</f>
+      <c r="S20" s="13">
+        <f>S15-S21</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q21" s="12" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="13">
-        <f>R15*(8/24)</f>
+      <c r="S21" s="13">
+        <f>S15*(8/24)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="R22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="15">
-        <f>R16-R19</f>
+      <c r="S22" s="15">
+        <f>S16-S19</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="60"/>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="65"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +3662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1712,7 +3670,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="16">
-        <f>R16*0.203+R15*0.702</f>
+        <f>S16*0.203+S15*0.702</f>
         <v>0.32774999999999999</v>
       </c>
       <c r="E26" s="9">
@@ -1729,7 +3687,7 @@
         <v>39.477487500000002</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>32</v>
       </c>
@@ -1737,7 +3695,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="16">
-        <f>0.53*R19+0.342*R20+0.49*R21+0.53*R22</f>
+        <f>0.53*S19+0.342*S20+0.49*S21+0.53*S22</f>
         <v>0.49533333333333335</v>
       </c>
       <c r="E27" s="9">
@@ -1750,11 +3708,11 @@
         <v>13</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H29" si="7">D27*E27*8760*G27/(10^6)</f>
+        <f>D27*E27*8760*G27/(10^6)</f>
         <v>14.10214</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -1762,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="16">
-        <f>0.498*R16+0.435*R20+0.456*R21</f>
+        <f>0.498*S16+0.435*S20+0.456*S21</f>
         <v>0.48399999999999999</v>
       </c>
       <c r="E28" s="9">
@@ -1775,11 +3733,11 @@
         <v>13</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="7"/>
+        <f>D28*E28*8760*G28/(10^6)</f>
         <v>11.023584</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>44</v>
       </c>
@@ -1787,7 +3745,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="16">
-        <f>0.454*R16+0.419*R20+0.428*R21</f>
+        <f>0.454*S16+0.419*S20+0.428*S21</f>
         <v>0.44600000000000006</v>
       </c>
       <c r="E29" s="9">
@@ -1800,34 +3758,34 @@
         <v>13</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="7"/>
+        <f>D29*E29*8760*G29/(10^6)</f>
         <v>7.6185720000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L2:S2"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B23:H23"/>
   </mergeCells>
@@ -1838,48 +3796,4678 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564981C-E4C1-4223-BBB8-B7B238FE5FB5}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="40">
+        <f>LCA!D5</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D3" s="39">
+        <v>600</v>
+      </c>
+      <c r="E3" s="38">
+        <v>85</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="44">
+        <f>C3*(1-(E3/D3))+(E3/D3)</f>
+        <v>0.37084166666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="40">
+        <f>LCA!D6</f>
+        <v>0.314</v>
+      </c>
+      <c r="D4" s="39">
+        <v>460</v>
+      </c>
+      <c r="E4" s="38">
+        <v>85</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="44">
+        <f t="shared" ref="G4:G7" si="0">C4*(1-(E4/D4))+(E4/D4)</f>
+        <v>0.44076086956521743</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="40">
+        <f>LCA!D7</f>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D5" s="39">
+        <v>405</v>
+      </c>
+      <c r="E5" s="38">
+        <v>85</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="44">
+        <f t="shared" si="0"/>
+        <v>0.48167901234567895</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="40">
+        <f>LCA!D8</f>
+        <v>0.105</v>
+      </c>
+      <c r="D6" s="39">
+        <v>942</v>
+      </c>
+      <c r="E6" s="38">
+        <v>85</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="44">
+        <f t="shared" si="0"/>
+        <v>0.18575902335456473</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" s="40">
+        <f>LCA!D9</f>
+        <v>0.105</v>
+      </c>
+      <c r="D7" s="39">
+        <v>942</v>
+      </c>
+      <c r="E7" s="38">
+        <v>85</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="44">
+        <f t="shared" si="0"/>
+        <v>0.18575902335456473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13276EEC-9828-43A0-B1C3-364F0B6ECE82}">
+  <dimension ref="A1:N722"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>375</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="35">
+        <v>40547</v>
+      </c>
+      <c r="E2" s="34">
+        <v>24</v>
+      </c>
+      <c r="F2" s="34">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="34">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="L2" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M2" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N2" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>376</v>
+      </c>
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="F3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="34">
+        <v>20.04</v>
+      </c>
+      <c r="L3" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M3" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>377</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34">
+        <v>2</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="34">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="L4" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M4" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>378</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="37">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="34">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="L5" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M5" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>379</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D6" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
+        <v>4</v>
+      </c>
+      <c r="G6" s="37">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="34">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="L6" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M6" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>380</v>
+      </c>
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D7" s="35">
+        <v>40544</v>
+      </c>
+      <c r="E7" s="34">
+        <v>2</v>
+      </c>
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="34">
+        <v>22.67</v>
+      </c>
+      <c r="L7" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M7" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>381</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E8" s="34">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37">
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="34">
+        <v>19.87</v>
+      </c>
+      <c r="L8" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M8" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>382</v>
+      </c>
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D9" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E9" s="34">
+        <v>2</v>
+      </c>
+      <c r="F9" s="34">
+        <v>3</v>
+      </c>
+      <c r="G9" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="34">
+        <v>19.22</v>
+      </c>
+      <c r="L9" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M9" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>383</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="34">
+        <v>4</v>
+      </c>
+      <c r="G10" s="37">
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="34">
+        <v>18.77</v>
+      </c>
+      <c r="L10" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M10" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>384</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="34">
+        <v>18.7</v>
+      </c>
+      <c r="L11" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M11" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>385</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E12" s="34">
+        <v>3</v>
+      </c>
+      <c r="F12" s="34">
+        <v>2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="34">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="L12" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M12" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N12" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>386</v>
+      </c>
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E13" s="34">
+        <v>3</v>
+      </c>
+      <c r="F13" s="34">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="34">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="L13" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M13" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N13" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>387</v>
+      </c>
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34">
+        <v>4</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.114583333333333</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="34">
+        <v>18.32</v>
+      </c>
+      <c r="L14" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M14" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>388</v>
+      </c>
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D15" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E15" s="34">
+        <v>4</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="34">
+        <v>18.41</v>
+      </c>
+      <c r="L15" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M15" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>389</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E16" s="34">
+        <v>4</v>
+      </c>
+      <c r="F16" s="34">
+        <v>2</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="34">
+        <v>18.73</v>
+      </c>
+      <c r="L16" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M16" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>390</v>
+      </c>
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4</v>
+      </c>
+      <c r="F17" s="34">
+        <v>3</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="34">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="L17" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M17" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>391</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E18" s="34">
+        <v>4</v>
+      </c>
+      <c r="F18" s="34">
+        <v>4</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.15625</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="34">
+        <v>19.43</v>
+      </c>
+      <c r="L18" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M18" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>392</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D19" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E19" s="34">
+        <v>5</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="34">
+        <v>20.97</v>
+      </c>
+      <c r="L19" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M19" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>393</v>
+      </c>
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D20" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E20" s="34">
+        <v>5</v>
+      </c>
+      <c r="F20" s="34">
+        <v>2</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.17708333333333301</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="34">
+        <v>21.21</v>
+      </c>
+      <c r="L20" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M20" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>394</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D21" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E21" s="34">
+        <v>5</v>
+      </c>
+      <c r="F21" s="34">
+        <v>3</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.1875</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="34">
+        <v>21.08</v>
+      </c>
+      <c r="L21" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M21" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>395</v>
+      </c>
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D22" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E22" s="34">
+        <v>5</v>
+      </c>
+      <c r="F22" s="34">
+        <v>4</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.19791666666666699</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="34">
+        <v>21.56</v>
+      </c>
+      <c r="L22" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M22" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>396</v>
+      </c>
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E23" s="34">
+        <v>6</v>
+      </c>
+      <c r="F23" s="34">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="34">
+        <v>21.59</v>
+      </c>
+      <c r="L23" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M23" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>397</v>
+      </c>
+      <c r="B24" s="34">
+        <v>1</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D24" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E24" s="34">
+        <v>6</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.21875</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="34">
+        <v>22.33</v>
+      </c>
+      <c r="L24" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M24" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>398</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E25" s="34">
+        <v>6</v>
+      </c>
+      <c r="F25" s="34">
+        <v>3</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="34">
+        <v>25.19</v>
+      </c>
+      <c r="L25" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M25" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>399</v>
+      </c>
+      <c r="B26" s="34">
+        <v>1</v>
+      </c>
+      <c r="C26" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D26" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E26" s="34">
+        <v>6</v>
+      </c>
+      <c r="F26" s="34">
+        <v>4</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0.23958333333333301</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="34">
+        <v>25.55</v>
+      </c>
+      <c r="L26" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M26" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>400</v>
+      </c>
+      <c r="B27" s="34">
+        <v>1</v>
+      </c>
+      <c r="C27" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D27" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E27" s="34">
+        <v>7</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="34">
+        <v>28.81</v>
+      </c>
+      <c r="L27" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M27" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>401</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E28" s="34">
+        <v>7</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="34">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="L28" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M28" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>402</v>
+      </c>
+      <c r="B29" s="34">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D29" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E29" s="34">
+        <v>7</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="34">
+        <v>61.63</v>
+      </c>
+      <c r="L29" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M29" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N29" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>403</v>
+      </c>
+      <c r="B30" s="34">
+        <v>1</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D30" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E30" s="34">
+        <v>7</v>
+      </c>
+      <c r="F30" s="34">
+        <v>4</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.28125</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="34">
+        <v>1560.06</v>
+      </c>
+      <c r="L30" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M30" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N30" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>404</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D31" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E31" s="34">
+        <v>8</v>
+      </c>
+      <c r="F31" s="34">
+        <v>1</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="34">
+        <v>753.77</v>
+      </c>
+      <c r="L31" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M31" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N31" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>405</v>
+      </c>
+      <c r="B32" s="34">
+        <v>1</v>
+      </c>
+      <c r="C32" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D32" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E32" s="34">
+        <v>8</v>
+      </c>
+      <c r="F32" s="34">
+        <v>2</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0.30208333333333298</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="34">
+        <v>114.93</v>
+      </c>
+      <c r="L32" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M32" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N32" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>406</v>
+      </c>
+      <c r="B33" s="34">
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D33" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E33" s="34">
+        <v>8</v>
+      </c>
+      <c r="F33" s="34">
+        <v>3</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0.3125</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="34">
+        <v>37.15</v>
+      </c>
+      <c r="L33" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M33" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>407</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D34" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E34" s="34">
+        <v>8</v>
+      </c>
+      <c r="F34" s="34">
+        <v>4</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="34">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="L34" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M34" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>408</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D35" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E35" s="34">
+        <v>9</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1</v>
+      </c>
+      <c r="G35" s="37">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="34">
+        <v>31.6</v>
+      </c>
+      <c r="L35" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M35" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>410</v>
+      </c>
+      <c r="B36" s="34">
+        <v>1</v>
+      </c>
+      <c r="C36" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D36" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E36" s="34">
+        <v>9</v>
+      </c>
+      <c r="F36" s="34">
+        <v>3</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.34375</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="34">
+        <v>31.56</v>
+      </c>
+      <c r="L36" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M36" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>411</v>
+      </c>
+      <c r="B37" s="34">
+        <v>1</v>
+      </c>
+      <c r="C37" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D37" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E37" s="34">
+        <v>9</v>
+      </c>
+      <c r="F37" s="34">
+        <v>4</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="34">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="L37" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M37" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N37" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>412</v>
+      </c>
+      <c r="B38" s="34">
+        <v>1</v>
+      </c>
+      <c r="C38" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D38" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E38" s="34">
+        <v>10</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="34">
+        <v>34.47</v>
+      </c>
+      <c r="L38" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M38" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>413</v>
+      </c>
+      <c r="B39" s="34">
+        <v>1</v>
+      </c>
+      <c r="C39" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D39" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E39" s="34">
+        <v>10</v>
+      </c>
+      <c r="F39" s="34">
+        <v>2</v>
+      </c>
+      <c r="G39" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="34">
+        <v>35.26</v>
+      </c>
+      <c r="L39" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M39" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>414</v>
+      </c>
+      <c r="B40" s="34">
+        <v>1</v>
+      </c>
+      <c r="C40" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D40" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E40" s="34">
+        <v>10</v>
+      </c>
+      <c r="F40" s="34">
+        <v>3</v>
+      </c>
+      <c r="G40" s="37">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="34">
+        <v>38.85</v>
+      </c>
+      <c r="L40" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M40" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>415</v>
+      </c>
+      <c r="B41" s="34">
+        <v>1</v>
+      </c>
+      <c r="C41" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D41" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E41" s="34">
+        <v>10</v>
+      </c>
+      <c r="F41" s="34">
+        <v>4</v>
+      </c>
+      <c r="G41" s="37">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="34">
+        <v>40.36</v>
+      </c>
+      <c r="L41" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M41" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>416</v>
+      </c>
+      <c r="B42" s="34">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D42" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E42" s="34">
+        <v>11</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
+      <c r="G42" s="37">
+        <v>0.40625</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="34">
+        <v>45.56</v>
+      </c>
+      <c r="L42" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M42" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>417</v>
+      </c>
+      <c r="B43" s="34">
+        <v>1</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D43" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E43" s="34">
+        <v>11</v>
+      </c>
+      <c r="F43" s="34">
+        <v>2</v>
+      </c>
+      <c r="G43" s="37">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="34">
+        <v>57.62</v>
+      </c>
+      <c r="L43" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M43" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N43" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>418</v>
+      </c>
+      <c r="B44" s="34">
+        <v>1</v>
+      </c>
+      <c r="C44" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D44" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E44" s="34">
+        <v>11</v>
+      </c>
+      <c r="F44" s="34">
+        <v>3</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="34">
+        <v>44.31</v>
+      </c>
+      <c r="L44" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M44" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N44" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>419</v>
+      </c>
+      <c r="B45" s="34">
+        <v>1</v>
+      </c>
+      <c r="C45" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D45" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E45" s="34">
+        <v>11</v>
+      </c>
+      <c r="F45" s="34">
+        <v>4</v>
+      </c>
+      <c r="G45" s="37">
+        <v>0.4375</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="34">
+        <v>51.72</v>
+      </c>
+      <c r="L45" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M45" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N45" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>420</v>
+      </c>
+      <c r="B46" s="34">
+        <v>1</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D46" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E46" s="34">
+        <v>12</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="G46" s="37">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="34">
+        <v>50.57</v>
+      </c>
+      <c r="L46" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M46" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N46" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>421</v>
+      </c>
+      <c r="B47" s="34">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D47" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E47" s="34">
+        <v>12</v>
+      </c>
+      <c r="F47" s="34">
+        <v>2</v>
+      </c>
+      <c r="G47" s="37">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="34">
+        <v>44.46</v>
+      </c>
+      <c r="L47" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M47" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N47" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>422</v>
+      </c>
+      <c r="B48" s="34">
+        <v>1</v>
+      </c>
+      <c r="C48" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D48" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E48" s="34">
+        <v>12</v>
+      </c>
+      <c r="F48" s="34">
+        <v>3</v>
+      </c>
+      <c r="G48" s="37">
+        <v>0.46875</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="34">
+        <v>36.9</v>
+      </c>
+      <c r="L48" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M48" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N48" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>423</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D49" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E49" s="34">
+        <v>12</v>
+      </c>
+      <c r="F49" s="34">
+        <v>4</v>
+      </c>
+      <c r="G49" s="37">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="34">
+        <v>33.97</v>
+      </c>
+      <c r="L49" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M49" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N49" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>424</v>
+      </c>
+      <c r="B50" s="34">
+        <v>1</v>
+      </c>
+      <c r="C50" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D50" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E50" s="34">
+        <v>13</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="34">
+        <v>33.56</v>
+      </c>
+      <c r="L50" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M50" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N50" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>425</v>
+      </c>
+      <c r="B51" s="34">
+        <v>1</v>
+      </c>
+      <c r="C51" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D51" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E51" s="34">
+        <v>13</v>
+      </c>
+      <c r="F51" s="34">
+        <v>2</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="34">
+        <v>33.99</v>
+      </c>
+      <c r="L51" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M51" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N51" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>426</v>
+      </c>
+      <c r="B52" s="34">
+        <v>1</v>
+      </c>
+      <c r="C52" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D52" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E52" s="34">
+        <v>13</v>
+      </c>
+      <c r="F52" s="34">
+        <v>3</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="34">
+        <v>34</v>
+      </c>
+      <c r="L52" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M52" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N52" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>427</v>
+      </c>
+      <c r="B53" s="34">
+        <v>1</v>
+      </c>
+      <c r="C53" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D53" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E53" s="34">
+        <v>13</v>
+      </c>
+      <c r="F53" s="34">
+        <v>4</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="34">
+        <v>31.84</v>
+      </c>
+      <c r="L53" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M53" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N53" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>428</v>
+      </c>
+      <c r="B54" s="34">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D54" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E54" s="34">
+        <v>14</v>
+      </c>
+      <c r="F54" s="34">
+        <v>1</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.53125</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="34">
+        <v>30.64</v>
+      </c>
+      <c r="L54" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M54" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N54" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>429</v>
+      </c>
+      <c r="B55" s="34">
+        <v>1</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D55" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E55" s="34">
+        <v>14</v>
+      </c>
+      <c r="F55" s="34">
+        <v>2</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="34">
+        <v>30.69</v>
+      </c>
+      <c r="L55" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M55" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N55" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>430</v>
+      </c>
+      <c r="B56" s="34">
+        <v>1</v>
+      </c>
+      <c r="C56" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D56" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E56" s="34">
+        <v>14</v>
+      </c>
+      <c r="F56" s="34">
+        <v>3</v>
+      </c>
+      <c r="G56" s="37">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="34">
+        <v>30.75</v>
+      </c>
+      <c r="L56" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M56" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N56" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>431</v>
+      </c>
+      <c r="B57" s="34">
+        <v>1</v>
+      </c>
+      <c r="C57" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D57" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E57" s="34">
+        <v>14</v>
+      </c>
+      <c r="F57" s="34">
+        <v>4</v>
+      </c>
+      <c r="G57" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="34">
+        <v>30.75</v>
+      </c>
+      <c r="L57" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M57" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N57" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>432</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D58" s="35">
+        <v>40548</v>
+      </c>
+      <c r="E58" s="34">
+        <v>15</v>
+      </c>
+      <c r="F58" s="34">
+        <v>1</v>
+      </c>
+      <c r="G58" s="37">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="34">
+        <v>30.31</v>
+      </c>
+      <c r="L58" s="34">
+        <v>5.66</v>
+      </c>
+      <c r="M58" s="34">
+        <v>48.249180000000003</v>
+      </c>
+      <c r="N58" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="31"/>
+      <c r="G59" s="37">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="31"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="31"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="31"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="31"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="31"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="31"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="31"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="31"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="31"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="31"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="31"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="31"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="31"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="31"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="31"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="31"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="31"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="31"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="31"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="31"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="31"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="31"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="31"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="31"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="31"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="31"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="31"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="31"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="31"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="31"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="31"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="31"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="31"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="31"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="31"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="31"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="31"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="31"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="31"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="31"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="31"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="31"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="31"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="31"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="31"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="31"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="31"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="31"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="31"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="31"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="31"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="31"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="31"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="31"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="31"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="31"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="31"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="31"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="31"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="31"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="31"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="31"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="31"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="31"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="31"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="31"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="31"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="31"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="31"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="31"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="31"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="31"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="31"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="31"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="31"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="31"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="31"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="31"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="31"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="31"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="31"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="31"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="31"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="31"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="31"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="31"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="31"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="31"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="31"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="31"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="31"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="31"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="31"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="31"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="31"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="31"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="31"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="31"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="31"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="31"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="31"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="31"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="31"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="31"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="31"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="31"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="31"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="31"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="31"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="31"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="31"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="31"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="31"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="31"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="31"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="31"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="31"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="31"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="31"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="31"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="31"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="31"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="31"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="31"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="31"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="31"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="31"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="31"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="31"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="31"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="31"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="31"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="31"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="31"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="31"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="31"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="31"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="31"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="31"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="31"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="31"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="31"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="31"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="31"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="31"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="31"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="31"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="31"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="31"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="31"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="31"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="31"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="31"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="31"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="31"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="31"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="31"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="31"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="31"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="31"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="31"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="31"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="31"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="31"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="31"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="31"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="31"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="31"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="31"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="31"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="31"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="31"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="31"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="31"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="31"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="31"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="31"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="31"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="31"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="31"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="31"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="31"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="31"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="31"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="31"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="31"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="31"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="31"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="31"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="31"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="31"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="31"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="31"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="31"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="31"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="31"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="31"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="31"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="31"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="31"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="31"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="31"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="31"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="31"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="31"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="31"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="31"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="31"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="31"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="31"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="31"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="31"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="31"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="31"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="31"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="31"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="31"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="31"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="31"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="31"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="31"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="31"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="31"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="31"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="31"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="31"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="31"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="31"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="31"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="31"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="31"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="31"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="31"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="31"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="31"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="31"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="31"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="31"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="31"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="31"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="31"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="31"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="31"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="31"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="31"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="31"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="31"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="31"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="31"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="31"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="31"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="31"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="31"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="31"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="31"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="31"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="31"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="31"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="31"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="31"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="31"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="31"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="31"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="31"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="31"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="31"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="31"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="31"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="31"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="31"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="31"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="31"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="31"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="31"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="31"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="31"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="31"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="31"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="31"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="31"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="31"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="31"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="31"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="31"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="31"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="31"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="31"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="31"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="31"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="31"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="31"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="31"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="31"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="31"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="31"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="31"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="31"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="31"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="31"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="31"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="31"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="31"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="31"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="31"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="31"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="31"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="31"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="31"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="31"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="31"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="31"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="31"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="31"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="31"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="31"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="31"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="31"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="31"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="31"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="31"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="31"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="31"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="31"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="31"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="31"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="31"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="31"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="31"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="31"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="31"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="31"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="31"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="31"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="31"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="31"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="31"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="31"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="31"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="31"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="31"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="31"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="31"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="31"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="31"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="31"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="31"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="31"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="31"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="31"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="31"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="31"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="31"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="31"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="31"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="31"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="31"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="31"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="31"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="31"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="31"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="31"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="31"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="31"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="31"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="31"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="31"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="31"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="31"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="31"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="31"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="31"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="31"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="31"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="31"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="31"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="31"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="31"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="31"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="31"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="31"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="31"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="31"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="31"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="31"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="31"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="31"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="31"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="31"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="31"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="31"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="31"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="31"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="31"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="31"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="31"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="31"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="31"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="31"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="31"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="31"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="31"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="31"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="31"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="31"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="31"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="31"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="31"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="31"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="31"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="31"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="31"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="31"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="31"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="31"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="31"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="31"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="31"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="31"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="31"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="31"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="31"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="31"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="31"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="31"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="31"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="31"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="31"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="31"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="31"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="31"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="31"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="31"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="31"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="31"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="31"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="31"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="31"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="31"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="31"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="31"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="31"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="31"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="31"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="31"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="31"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="31"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="31"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="31"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="31"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="31"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="31"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="31"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="31"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="31"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="31"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="31"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="31"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="31"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="31"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="31"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="31"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="31"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="31"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="31"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="31"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="31"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="31"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="31"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="31"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="31"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="31"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="31"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="31"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="31"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="31"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="31"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="31"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="31"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="31"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="31"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="31"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="31"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="31"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="31"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="31"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="31"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="31"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="31"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="31"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="31"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="31"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="31"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="31"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="31"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="31"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="31"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="31"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="31"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="31"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="31"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="31"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="31"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="31"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="31"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="31"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="31"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="31"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="31"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="31"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="31"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="31"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="31"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="31"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="31"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="31"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="31"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="31"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="31"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="31"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="31"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="31"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="31"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="31"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="31"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="31"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="31"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="31"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="31"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="31"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="31"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="31"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="31"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="31"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="31"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="31"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="31"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="31"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="31"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="31"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="31"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="31"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="31"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="31"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="31"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="31"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="31"/>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="31"/>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="31"/>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="31"/>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="31"/>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="31"/>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="31"/>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="31"/>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="31"/>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="31"/>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="31"/>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="31"/>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="31"/>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="31"/>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="31"/>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="31"/>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="31"/>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="31"/>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="31"/>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="31"/>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="31"/>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="31"/>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="31"/>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="31"/>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="31"/>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="31"/>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="31"/>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="31"/>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" s="31"/>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" s="31"/>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="31"/>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" s="31"/>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" s="31"/>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="31"/>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" s="31"/>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" s="31"/>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" s="31"/>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" s="31"/>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" s="31"/>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" s="31"/>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" s="31"/>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" s="31"/>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" s="31"/>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" s="31"/>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" s="31"/>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" s="31"/>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" s="31"/>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" s="31"/>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" s="31"/>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" s="31"/>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" s="31"/>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" s="31"/>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" s="31"/>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" s="31"/>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" s="31"/>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" s="31"/>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="31"/>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" s="31"/>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" s="31"/>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" s="31"/>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" s="31"/>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" s="31"/>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" s="31"/>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" s="31"/>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" s="31"/>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" s="31"/>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" s="31"/>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" s="31"/>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" s="31"/>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" s="31"/>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" s="31"/>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" s="31"/>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" s="31"/>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" s="31"/>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" s="31"/>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" s="31"/>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="31"/>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" s="31"/>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" s="31"/>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" s="31"/>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" s="31"/>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" s="31"/>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" s="31"/>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" s="31"/>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" s="31"/>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" s="31"/>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" s="31"/>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" s="31"/>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" s="31"/>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" s="31"/>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" s="31"/>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="31"/>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" s="31"/>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" s="31"/>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="31"/>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="31"/>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" s="31"/>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" s="31"/>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" s="31"/>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" s="31"/>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" s="31"/>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" s="31"/>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" s="31"/>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" s="31"/>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" s="31"/>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" s="31"/>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" s="31"/>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" s="31"/>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" s="31"/>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" s="31"/>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="31"/>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/LCA.xlsx
+++ b/data/LCA.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnergyDevelopment_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE956B75-B35B-495E-A357-216F5AEAA028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11BEA37-F380-4C61-B4DF-B1BD630C8CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
+    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="1" r:id="rId1"/>
-    <sheet name="LCA_Daily" sheetId="4" r:id="rId2"/>
-    <sheet name="LCA_Hourly" sheetId="6" r:id="rId3"/>
+    <sheet name="LCA_Hourly" sheetId="6" r:id="rId2"/>
+    <sheet name="CF Adjustment" sheetId="2" r:id="rId3"/>
     <sheet name="Marginal Costs" sheetId="5" r:id="rId4"/>
-    <sheet name="CF Adjustment" sheetId="2" r:id="rId5"/>
-    <sheet name="Graphing" sheetId="3" r:id="rId6"/>
+    <sheet name="Graphing" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Graphing!$A$2:$N$424</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Graphing!$A$2:$N$424</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="89">
   <si>
     <t>Table 1: CCGT Life Cycle Analysis Emissions Rate</t>
   </si>
@@ -393,16 +392,26 @@
   <si>
     <t>NG_Price</t>
   </si>
+  <si>
+    <t>Raw CF Daily</t>
+  </si>
+  <si>
+    <t>Raw CF Hourly</t>
+  </si>
+  <si>
+    <t>Adjusted Heat Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,12 +477,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -769,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -874,9 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -951,12 +951,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6139,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27891372-5872-4E4D-8E46-0ACC3C9C1CC7}">
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I9"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,33 +6170,33 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="L2" s="50" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="L2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -6194,10 +6205,10 @@
       <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -6209,19 +6220,19 @@
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -6235,16 +6246,16 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
@@ -6254,13 +6265,13 @@
       <c r="J4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="3" t="s">
         <v>51</v>
       </c>
@@ -6282,11 +6293,11 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="E5" s="6">
-        <f>'CF Adjustment'!G3</f>
-        <v>0.47356251901429836</v>
+        <f>'CF Adjustment'!H3</f>
+        <v>0.48469966657792307</v>
       </c>
       <c r="F5" s="5">
-        <v>6800</v>
+        <v>7480.0000000000009</v>
       </c>
       <c r="G5" s="5">
         <v>600</v>
@@ -6308,7 +6319,7 @@
       </c>
       <c r="N5" s="6">
         <f>E5</f>
-        <v>0.47356251901429836</v>
+        <v>0.48469966657792307</v>
       </c>
       <c r="O5" s="5">
         <v>6800</v>
@@ -6316,14 +6327,17 @@
       <c r="P5" s="5">
         <v>600</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7">
+        <f>$N5*8670*$G5*H5*F5/(2000*10^3)</f>
+        <v>215.00547445578673</v>
+      </c>
       <c r="R5" s="7">
         <f>$N5*8670*$G5*I5*F5/(2000*10^3)</f>
-        <v>6.1980961153635485</v>
-      </c>
-      <c r="S5" s="40">
-        <f>$D5*8670*$G5*J5*F5/(2000*10^3)</f>
-        <v>552517.94520000007</v>
+        <v>6.9782478551439553</v>
+      </c>
+      <c r="S5" s="7">
+        <f>$N5*8670*$G5*J5*F5/(2000*10^3)</f>
+        <v>1103317.5662862742</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6337,8 +6351,8 @@
         <v>0.314</v>
       </c>
       <c r="E6" s="6">
-        <f>'CF Adjustment'!G4</f>
-        <v>0.56870610177114023</v>
+        <f>'CF Adjustment'!H4</f>
+        <v>0.59940362701921202</v>
       </c>
       <c r="F6" s="5">
         <v>6400</v>
@@ -6363,7 +6377,7 @@
       </c>
       <c r="N6" s="6">
         <f>E6</f>
-        <v>0.56870610177114023</v>
+        <v>0.59940362701921202</v>
       </c>
       <c r="O6" s="5">
         <v>6400</v>
@@ -6373,11 +6387,11 @@
       </c>
       <c r="Q6" s="7">
         <f>$N6*8670*$G6*H6*F6/(2000*10^3)</f>
-        <v>165.48157373410396</v>
+        <v>174.41391114348446</v>
       </c>
       <c r="R6" s="7">
         <f>$N6*8670*$G6*I6*F6/(2000*10^3)</f>
-        <v>5.3708931825981105</v>
+        <v>5.6608023792183539</v>
       </c>
       <c r="S6" s="40">
         <f>$D6*8670*$G6*J6*F6/(2000*10^3)</f>
@@ -6395,8 +6409,8 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="E7" s="6">
-        <f>'CF Adjustment'!G5</f>
-        <v>0.62332721119862367</v>
+        <f>'CF Adjustment'!H5</f>
+        <v>0.66566575872790124</v>
       </c>
       <c r="F7" s="5">
         <v>6200</v>
@@ -6421,7 +6435,7 @@
       </c>
       <c r="N7" s="6">
         <f>E7</f>
-        <v>0.62332721119862367</v>
+        <v>0.66566575872790124</v>
       </c>
       <c r="O7" s="5">
         <v>6200</v>
@@ -6431,11 +6445,11 @@
       </c>
       <c r="Q7" s="7">
         <f>$N7*8670*$G7*H7*F7/(2000*10^3)</f>
-        <v>154.69872981502886</v>
+        <v>165.20640444774338</v>
       </c>
       <c r="R7" s="7">
         <f>$N7*8670*$G7*I7*F7/(2000*10^3)</f>
-        <v>5.0209236869790068</v>
+        <v>5.361962249619741</v>
       </c>
       <c r="S7" s="40">
         <f>$D7*8670*$G7*J7*F7/(2000*10^3)</f>
@@ -6453,8 +6467,8 @@
         <v>0.105</v>
       </c>
       <c r="E8" s="6">
-        <f>'CF Adjustment'!G6</f>
-        <v>0.20687557042896301</v>
+        <f>'CF Adjustment'!H6</f>
+        <v>0.39456636113540999</v>
       </c>
       <c r="F8" s="8">
         <v>8840</v>
@@ -6479,7 +6493,7 @@
       </c>
       <c r="N8" s="6">
         <f>E8</f>
-        <v>0.20687557042896301</v>
+        <v>0.39456636113540999</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>16</v>
@@ -6489,11 +6503,11 @@
       </c>
       <c r="Q8" s="7">
         <f>$N8*8670*$G8*H8*F8/(2000*10^3)</f>
-        <v>1120.1926977791322</v>
+        <v>2136.503385183129</v>
       </c>
       <c r="R8" s="7">
         <f>$N8*8670*$G8*I8*F8/(2000*10^3)</f>
-        <v>5.5262839757103857</v>
+        <v>10.540083366903435</v>
       </c>
       <c r="S8" s="40">
         <f>$D8*8670*$G8*J8*F8/(2000*10^3)</f>
@@ -6511,8 +6525,8 @@
         <v>0.105</v>
       </c>
       <c r="E9" s="6">
-        <f>'CF Adjustment'!G7</f>
-        <v>0.20687557042896301</v>
+        <f>'CF Adjustment'!H7</f>
+        <v>0.39456636113540999</v>
       </c>
       <c r="F9" s="8">
         <v>8840</v>
@@ -6537,7 +6551,7 @@
       </c>
       <c r="N9" s="6">
         <f>E9</f>
-        <v>0.20687557042896301</v>
+        <v>0.39456636113540999</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>16</v>
@@ -6547,11 +6561,11 @@
       </c>
       <c r="Q9" s="7">
         <f>$N9*8670*$G9*H9*F9/(2000*10^3)</f>
-        <v>170.26929006242813</v>
+        <v>324.74851454783567</v>
       </c>
       <c r="R9" s="7">
         <f>$N9*8670*$G9*I9*F9/(2000*10^3)</f>
-        <v>5.5262839757103857</v>
+        <v>10.540083366903435</v>
       </c>
       <c r="S9" s="40">
         <f>$D9*8670*$G9*J9*F9/(2000*10^3)</f>
@@ -6567,48 +6581,48 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="19"/>
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="2:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="70" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="2:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
@@ -6633,7 +6647,7 @@
       </c>
       <c r="D16" s="6">
         <f>E5</f>
-        <v>0.47356251901429836</v>
+        <v>0.48469966657792307</v>
       </c>
       <c r="E16" s="5">
         <v>600</v>
@@ -6643,14 +6657,14 @@
       </c>
       <c r="G16" s="7">
         <f>$D16*8760*$E16*F16/10^6</f>
-        <v>497.80891998783039</v>
+        <v>509.51628950671272</v>
       </c>
       <c r="H16" s="5">
         <v>250</v>
       </c>
       <c r="I16" s="7">
         <f>$D16*8760*$E16*H16/10^6</f>
-        <v>622.26114998478806</v>
+        <v>636.89536188339093</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6662,7 +6676,7 @@
       </c>
       <c r="D17" s="6">
         <f>E6</f>
-        <v>0.56870610177114023</v>
+        <v>0.59940362701921202</v>
       </c>
       <c r="E17" s="5">
         <v>460</v>
@@ -6672,14 +6686,14 @@
       </c>
       <c r="G17" s="7">
         <f>$D17*8760*$E17*F17/10^6</f>
-        <v>458.33162153939736</v>
+        <v>483.07137108732331</v>
       </c>
       <c r="H17" s="5">
         <v>250</v>
       </c>
       <c r="I17" s="7">
         <f>$D17*8760*$E17*H17/10^6</f>
-        <v>572.91452692424662</v>
+        <v>603.83921385915414</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6691,7 +6705,7 @@
       </c>
       <c r="D18" s="6">
         <f>E7</f>
-        <v>0.62332721119862367</v>
+        <v>0.66566575872790124</v>
       </c>
       <c r="E18" s="5">
         <v>405</v>
@@ -6701,14 +6715,14 @@
       </c>
       <c r="G18" s="7">
         <f>$D18*8760*$E18*F18/10^6</f>
-        <v>442.28805597809543</v>
+        <v>472.32979576296958</v>
       </c>
       <c r="H18" s="5">
         <v>250</v>
       </c>
       <c r="I18" s="7">
         <f>$D18*8760*$E18*H18/10^6</f>
-        <v>552.86006997261927</v>
+        <v>590.41224470371196</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6720,7 +6734,7 @@
       </c>
       <c r="D19" s="6">
         <f>E8</f>
-        <v>0.20687557042896301</v>
+        <v>0.39456636113540999</v>
       </c>
       <c r="E19" s="36">
         <v>942</v>
@@ -6730,27 +6744,27 @@
       </c>
       <c r="G19" s="37">
         <f>$D19*8760*$E19*F19/10^6</f>
-        <v>341.4241314268337</v>
+        <v>651.18600935610255</v>
       </c>
       <c r="H19" s="36">
         <v>250</v>
       </c>
       <c r="I19" s="37">
         <f>$D19*8760*$E19*H19/10^6</f>
-        <v>426.78016428354209</v>
+        <v>813.98251169512821</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="34"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6759,25 +6773,25 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="38" t="s">
@@ -6786,15 +6800,15 @@
       <c r="F24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="66"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
@@ -6939,893 +6953,1035 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5736E-F416-4A91-98C0-BF05C38E1A71}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B724EB-6910-45D9-ADF5-6C5EE28B5832}">
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G2" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" s="43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="P2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F3" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="J3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="K3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="L3" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="M3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O3" s="43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="P3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="75">
-        <v>0.38667477943413398</v>
-      </c>
-      <c r="E3" s="45">
-        <f>'CF Adjustment'!G3</f>
-        <v>0.47356251901429836</v>
-      </c>
-      <c r="F3" s="46">
-        <v>6800</v>
-      </c>
-      <c r="G3">
-        <v>600</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <f>I3*F3/(10^3)</f>
-        <v>0.15503999999999998</v>
-      </c>
-      <c r="K3">
-        <f>J3*G3*8670*E3/2000</f>
-        <v>190.96836679768765</v>
-      </c>
-      <c r="L3">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="75">
-        <v>0.470946151505932</v>
-      </c>
-      <c r="E4" s="45">
-        <f>'CF Adjustment'!G4</f>
-        <v>0.56870610177114023</v>
+      <c r="D4" s="74">
+        <v>0.39965009698398801</v>
+      </c>
+      <c r="E4" s="76">
+        <f>'CF Adjustment'!I3</f>
+        <v>0.48469966657792307</v>
       </c>
       <c r="F4" s="46">
-        <v>6400</v>
-      </c>
-      <c r="G4">
-        <v>460</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4">
+        <v>6800</v>
+      </c>
+      <c r="G4" s="46">
+        <f>F4*1.1</f>
+        <v>7480.0000000000009</v>
+      </c>
+      <c r="H4" s="44">
+        <v>600</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J11" si="0">I4*F4/(10^3)</f>
-        <v>0.14592000000000002</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K11" si="1">J4*G4*8670*E4/2000</f>
-        <v>165.48157373410396</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="80">
+        <f>J4*G4/(10^3)</f>
+        <v>0.17054400000000003</v>
+      </c>
+      <c r="L4" s="80">
+        <f>K4*H4*8670*E4/2000</f>
+        <v>215.00547445578673</v>
+      </c>
+      <c r="M4">
         <v>7.3999999999999999E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="79">
+        <f>M4*G4/(10^3)</f>
+        <v>5.5352000000000005E-3</v>
+      </c>
+      <c r="O4" s="80">
+        <f>N4*H4*8670*E4/2000</f>
+        <v>6.9782478551439544</v>
+      </c>
+      <c r="P4" s="19">
+        <v>117</v>
+      </c>
+      <c r="Q4">
+        <f>P4*G4/(10^3)</f>
+        <v>875.16000000000008</v>
+      </c>
+      <c r="R4" s="81">
+        <f>Q4*H4*8670*E4/2000</f>
+        <v>1103317.5662862738</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="19">
+        <v>200</v>
+      </c>
+      <c r="U4" s="81">
+        <f>$E4*8760*$T4*H4/10^6</f>
+        <v>509.51628950671278</v>
+      </c>
+      <c r="V4" s="19">
+        <v>250</v>
+      </c>
+      <c r="W4" s="81">
+        <f>$E4*8760*$V4*H4/10^6</f>
+        <v>636.89536188339105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="75">
-        <v>0.52327350167325803</v>
-      </c>
-      <c r="E5" s="45">
-        <f>'CF Adjustment'!G5</f>
-        <v>0.62332721119862367</v>
+      <c r="D5" s="74">
+        <v>0.50860178247690002</v>
+      </c>
+      <c r="E5" s="76">
+        <f>'CF Adjustment'!I4</f>
+        <v>0.59940362701921202</v>
       </c>
       <c r="F5" s="46">
+        <v>6400</v>
+      </c>
+      <c r="G5" s="46">
+        <f t="shared" ref="G5:G8" si="0">F5*1.1</f>
+        <v>7040.0000000000009</v>
+      </c>
+      <c r="H5" s="44">
+        <v>460</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="K5" s="80">
+        <f t="shared" ref="K5:K8" si="1">J5*G5/(10^3)</f>
+        <v>0.16051200000000002</v>
+      </c>
+      <c r="L5" s="80">
+        <f t="shared" ref="L5:L12" si="2">K5*H5*8670*E5/2000</f>
+        <v>191.8553022578329</v>
+      </c>
+      <c r="M5">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="N5" s="79">
+        <f t="shared" ref="N5:N8" si="3">M5*G5/(10^3)</f>
+        <v>5.2096000000000009E-3</v>
+      </c>
+      <c r="O5" s="80">
+        <f t="shared" ref="O5:O8" si="4">N5*H5*8670*E5/2000</f>
+        <v>6.2268826171401903</v>
+      </c>
+      <c r="P5" s="19">
+        <v>117</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q8" si="5">P5*G5/(10^3)</f>
+        <v>823.68000000000006</v>
+      </c>
+      <c r="R5" s="81">
+        <f t="shared" ref="R5:R8" si="6">Q5*H5*8670*E5/2000</f>
+        <v>984520.63000730053</v>
+      </c>
+      <c r="S5" s="44"/>
+      <c r="T5" s="19">
+        <v>200</v>
+      </c>
+      <c r="U5" s="81">
+        <f t="shared" ref="U5:U8" si="7">$E5*8760*$T5*H5/10^6</f>
+        <v>483.07137108732331</v>
+      </c>
+      <c r="V5" s="19">
+        <v>250</v>
+      </c>
+      <c r="W5" s="81">
+        <f t="shared" ref="W5:W8" si="8">$E5*8760*$V5*H5/10^6</f>
+        <v>603.83921385915426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0.57685822589000002</v>
+      </c>
+      <c r="E6" s="76">
+        <f>'CF Adjustment'!I5</f>
+        <v>0.66566575872790124</v>
+      </c>
+      <c r="F6" s="46">
         <v>6200</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="46">
+        <f t="shared" si="0"/>
+        <v>6820.0000000000009</v>
+      </c>
+      <c r="H6" s="44">
         <v>405</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5">
+      <c r="I6" s="44"/>
+      <c r="J6">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.14136000000000001</v>
-      </c>
-      <c r="K5">
+      <c r="K6" s="80">
         <f t="shared" si="1"/>
-        <v>154.69872981502888</v>
-      </c>
-      <c r="L5">
+        <v>0.15549600000000005</v>
+      </c>
+      <c r="L6" s="80">
+        <f t="shared" si="2"/>
+        <v>181.72704489251777</v>
+      </c>
+      <c r="M6">
         <v>7.3999999999999999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="N6" s="79">
+        <f t="shared" si="3"/>
+        <v>5.0468000000000006E-3</v>
+      </c>
+      <c r="O6" s="80">
+        <f t="shared" si="4"/>
+        <v>5.8981584745817166</v>
+      </c>
+      <c r="P6" s="19">
+        <v>117</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>797.94000000000017</v>
+      </c>
+      <c r="R6" s="81">
+        <f t="shared" si="6"/>
+        <v>932546.67773792008</v>
+      </c>
+      <c r="S6" s="44"/>
+      <c r="T6" s="19">
+        <v>200</v>
+      </c>
+      <c r="U6" s="81">
+        <f t="shared" si="7"/>
+        <v>472.32979576296964</v>
+      </c>
+      <c r="V6" s="19">
+        <v>250</v>
+      </c>
+      <c r="W6" s="81">
+        <f t="shared" si="8"/>
+        <v>590.41224470371196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="75">
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="E6" s="45">
-        <f>'CF Adjustment'!G6</f>
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="F6" s="47">
-        <v>7760</v>
-      </c>
-      <c r="G6">
-        <v>942</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6">
-        <v>0.15</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>983.3365763310029</v>
-      </c>
-      <c r="L6">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="75">
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="E7" s="45">
-        <f>'CF Adjustment'!G7</f>
-        <v>0.20687557042896301</v>
+      <c r="D7" s="74">
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="E7" s="76">
+        <f>'CF Adjustment'!I6</f>
+        <v>0.39456636113540999</v>
       </c>
       <c r="F7" s="47">
         <v>7760</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="46">
+        <f t="shared" si="0"/>
+        <v>8536</v>
+      </c>
+      <c r="H7" s="44">
         <v>942</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7">
+      <c r="I7" s="44"/>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="80">
+        <f t="shared" si="1"/>
+        <v>1.2803999999999998</v>
+      </c>
+      <c r="L7" s="80">
+        <f t="shared" si="2"/>
+        <v>2063.030870579546</v>
+      </c>
+      <c r="M7">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="N7" s="79">
+        <f t="shared" si="3"/>
+        <v>6.3166399999999992E-3</v>
+      </c>
+      <c r="O7" s="80">
+        <f t="shared" si="4"/>
+        <v>10.177618961525761</v>
+      </c>
+      <c r="P7" s="19">
+        <v>117</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>998.71199999999999</v>
+      </c>
+      <c r="R7" s="81">
+        <f t="shared" si="6"/>
+        <v>1609164.0790520462</v>
+      </c>
+      <c r="S7" s="44"/>
+      <c r="T7" s="19">
+        <v>200</v>
+      </c>
+      <c r="U7" s="81">
+        <f t="shared" si="7"/>
+        <v>651.18600935610243</v>
+      </c>
+      <c r="V7" s="19">
+        <v>250</v>
+      </c>
+      <c r="W7" s="81">
+        <f t="shared" si="8"/>
+        <v>813.9825116951281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="74">
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="E8" s="76">
+        <f>'CF Adjustment'!I7</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="F8" s="47">
+        <v>7760</v>
+      </c>
+      <c r="G8" s="46">
+        <f t="shared" si="0"/>
+        <v>8536</v>
+      </c>
+      <c r="H8" s="44">
+        <v>942</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.176928</v>
-      </c>
-      <c r="K7">
+      <c r="K8" s="80">
         <f t="shared" si="1"/>
-        <v>149.46715960231245</v>
-      </c>
-      <c r="L7">
+        <v>0.19462080000000001</v>
+      </c>
+      <c r="L8" s="80">
+        <f t="shared" si="2"/>
+        <v>313.580692328091</v>
+      </c>
+      <c r="M8">
         <v>7.3999999999999999E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="N8" s="79">
+        <f t="shared" si="3"/>
+        <v>6.3166399999999992E-3</v>
+      </c>
+      <c r="O8" s="80">
+        <f t="shared" si="4"/>
+        <v>10.177618961525761</v>
+      </c>
+      <c r="P8" s="19">
+        <v>117</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>998.71199999999999</v>
+      </c>
+      <c r="R8" s="81">
+        <f t="shared" si="6"/>
+        <v>1609164.0790520462</v>
+      </c>
+      <c r="S8" s="44"/>
+      <c r="T8" s="19">
+        <v>200</v>
+      </c>
+      <c r="U8" s="81">
+        <f t="shared" si="7"/>
+        <v>651.18600935610243</v>
+      </c>
+      <c r="V8" s="19">
+        <v>250</v>
+      </c>
+      <c r="W8" s="81">
+        <f t="shared" si="8"/>
+        <v>813.9825116951281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D9" s="74">
         <f>'CF Adjustment'!C12*0.203+'CF Adjustment'!C11*0.702</f>
         <v>0.32774999999999999</v>
       </c>
-      <c r="E8" s="45">
-        <f>D8</f>
+      <c r="E9" s="45">
+        <f>D9</f>
         <v>0.32774999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>250</v>
       </c>
-      <c r="H8" s="44">
+      <c r="I9" s="44">
         <v>8000</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="K9">
+        <f t="shared" ref="K5:K12" si="9">J9*F9/(10^3)</f>
         <v>0</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
+      <c r="L9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="Q9">
+        <v>55</v>
+      </c>
+      <c r="R9" s="80">
+        <f>E9*Q9*8760*H9/(10^6)</f>
+        <v>39.477487499999995</v>
+      </c>
+      <c r="S9" s="44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B10" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D10" s="74">
         <f>0.53*'CF Adjustment'!C15+0.342*'CF Adjustment'!C16+0.49*'CF Adjustment'!C17+0.53*'CF Adjustment'!C18</f>
         <v>0.49533333333333335</v>
       </c>
-      <c r="E9" s="45">
-        <f t="shared" ref="E9:E11" si="2">D9</f>
+      <c r="E10" s="45">
+        <f t="shared" ref="E10:E12" si="10">D10</f>
         <v>0.49533333333333335</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>250</v>
       </c>
-      <c r="H9" s="44">
+      <c r="I10" s="44">
         <v>38000</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="K10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="Q10">
+        <v>13</v>
+      </c>
+      <c r="R10" s="80">
+        <f t="shared" ref="R10:R12" si="11">E10*Q10*8760*H10/(10^6)</f>
+        <v>14.102140000000002</v>
+      </c>
+      <c r="S10" s="44">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D11" s="74">
         <f>0.498*'CF Adjustment'!C12+0.435*'CF Adjustment'!C16+0.456*'CF Adjustment'!C17</f>
         <v>0.48399999999999999</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E11" s="45">
+        <f t="shared" si="10"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11" s="44">
+        <v>20000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11" s="80">
+        <f t="shared" si="11"/>
+        <v>11.023584</v>
+      </c>
+      <c r="S11" s="44">
         <v>20000</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B12" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C12" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D12" s="74">
         <f>0.454*'CF Adjustment'!C12+0.419*'CF Adjustment'!C16+0.428*'CF Adjustment'!C17</f>
         <v>0.44600000000000006</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E12" s="45">
+        <f t="shared" si="10"/>
+        <v>0.44600000000000006</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12" s="44">
+        <v>20000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>0.44600000000000006</v>
-      </c>
-      <c r="G11">
-        <v>150</v>
-      </c>
-      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+      <c r="R12" s="80">
+        <f t="shared" si="11"/>
+        <v>7.6185720000000021</v>
+      </c>
+      <c r="S12" s="44">
         <v>20000</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="44"/>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="44"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="S13" s="44"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="44"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B724EB-6910-45D9-ADF5-6C5EE28B5832}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564981C-E4C1-4223-BBB8-B7B238FE5FB5}">
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="29">
+        <f>LCA_Hourly!D4</f>
+        <v>0.39965009698398801</v>
+      </c>
+      <c r="D3" s="29">
+        <f>LCA_Hourly!D4</f>
+        <v>0.39965009698398801</v>
+      </c>
+      <c r="E3" s="28">
+        <v>600</v>
+      </c>
+      <c r="F3" s="27">
+        <v>85</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="76">
-        <v>0.27397659706639299</v>
-      </c>
-      <c r="E3" s="78">
-        <f>'CF Adjustment'!G3</f>
-        <v>0.47356251901429836</v>
-      </c>
-      <c r="F3" s="46">
-        <v>6800</v>
-      </c>
-      <c r="G3" s="44">
-        <v>600</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <f>I3*F3/(10^3)</f>
-        <v>0.15503999999999998</v>
-      </c>
-      <c r="K3">
-        <f>J3*G3*8670*E3/2000</f>
-        <v>190.96836679768765</v>
-      </c>
-      <c r="L3">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="H3" s="33">
+        <f>C3*(1-(F3/E3))+(F3/E3)</f>
+        <v>0.48469966657792307</v>
+      </c>
+      <c r="I3" s="33">
+        <f>D3*(1-(F3/E3))+(F3/E3)</f>
+        <v>0.48469966657792307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="29">
+        <f>LCA_Hourly!D5</f>
+        <v>0.50860178247690002</v>
+      </c>
+      <c r="D4" s="29">
+        <f>LCA_Hourly!D5</f>
+        <v>0.50860178247690002</v>
+      </c>
+      <c r="E4" s="28">
+        <v>460</v>
+      </c>
+      <c r="F4" s="27">
+        <v>85</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="76">
-        <v>0.32037677962448802</v>
-      </c>
-      <c r="E4" s="78">
-        <f>'CF Adjustment'!G4</f>
-        <v>0.56870610177114023</v>
-      </c>
-      <c r="F4" s="46">
-        <v>6400</v>
-      </c>
-      <c r="G4" s="44">
-        <v>460</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J11" si="0">I4*F4/(10^3)</f>
-        <v>0.14592000000000002</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K11" si="1">J4*G4*8670*E4/2000</f>
-        <v>165.48157373410396</v>
-      </c>
-      <c r="L4">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="H4" s="33">
+        <f>C4*(1-(F4/E4))+(F4/E4)</f>
+        <v>0.59940362701921202</v>
+      </c>
+      <c r="I4" s="33">
+        <f t="shared" ref="I4:I7" si="0">D4*(1-(F4/E4))+(F4/E4)</f>
+        <v>0.59940362701921202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="29">
+        <f>LCA_Hourly!D6</f>
+        <v>0.57685822589000002</v>
+      </c>
+      <c r="D5" s="29">
+        <f>LCA_Hourly!D6</f>
+        <v>0.57685822589000002</v>
+      </c>
+      <c r="E5" s="28">
+        <v>405</v>
+      </c>
+      <c r="F5" s="27">
+        <v>85</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="76">
-        <v>0.35030870066811198</v>
-      </c>
-      <c r="E5" s="78">
-        <f>'CF Adjustment'!G5</f>
-        <v>0.62332721119862367</v>
-      </c>
-      <c r="F5" s="46">
-        <v>6200</v>
-      </c>
-      <c r="G5" s="44">
-        <v>405</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="33">
+        <f>C5*(1-(F5/E5))+(F5/E5)</f>
+        <v>0.66566575872790124</v>
+      </c>
+      <c r="I5" s="33">
         <f t="shared" si="0"/>
-        <v>0.14136000000000001</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>154.69872981502888</v>
-      </c>
-      <c r="L5">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="76">
-        <v>0.185207723221643</v>
-      </c>
-      <c r="E6" s="78">
-        <f>'CF Adjustment'!G6</f>
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="F6" s="47">
-        <v>7760</v>
-      </c>
-      <c r="G6" s="44">
+        <v>0.66566575872790124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="29">
+        <f>LCA_Hourly!D7</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="D6" s="29">
+        <f>LCA_Hourly!D7</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="E6" s="28">
         <v>942</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6">
-        <v>0.15</v>
-      </c>
-      <c r="J6">
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="33">
+        <f>C6*(1-(F6/E6))+(F6/E6)</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>983.3365763310029</v>
-      </c>
-      <c r="L6">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="76">
-        <v>0.185207723221643</v>
-      </c>
-      <c r="E7" s="78">
-        <f>'CF Adjustment'!G7</f>
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="F7" s="47">
-        <v>7760</v>
-      </c>
-      <c r="G7" s="44">
+        <v>0.39456636113540999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="29">
+        <f>LCA_Hourly!D8</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="D7" s="29">
+        <f>LCA_Hourly!D8</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="E7" s="28">
         <v>942</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="J7">
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="33">
+        <f>C7*(1-(F7/E7))+(F7/E7)</f>
+        <v>0.39456636113540999</v>
+      </c>
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
-        <v>0.176928</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>149.46715960231245</v>
-      </c>
-      <c r="L7">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="76">
-        <f>'CF Adjustment'!C12*0.203+'CF Adjustment'!C11*0.702</f>
-        <v>0.32774999999999999</v>
-      </c>
-      <c r="E8" s="45">
-        <f>D8</f>
-        <v>0.32774999999999999</v>
-      </c>
-      <c r="G8">
-        <v>250</v>
-      </c>
-      <c r="H8" s="44">
-        <v>8000</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="76">
-        <f>0.53*'CF Adjustment'!C15+0.342*'CF Adjustment'!C16+0.49*'CF Adjustment'!C17+0.53*'CF Adjustment'!C18</f>
-        <v>0.49533333333333335</v>
-      </c>
-      <c r="E9" s="45">
-        <f t="shared" ref="E9:E11" si="2">D9</f>
-        <v>0.49533333333333335</v>
-      </c>
-      <c r="G9">
-        <v>250</v>
-      </c>
-      <c r="H9" s="44">
-        <v>38000</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="76">
-        <f>0.498*'CF Adjustment'!C12+0.435*'CF Adjustment'!C16+0.456*'CF Adjustment'!C17</f>
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E10" s="45">
-        <f t="shared" si="2"/>
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10" s="44">
-        <v>20000</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="76">
-        <f>0.454*'CF Adjustment'!C12+0.419*'CF Adjustment'!C16+0.428*'CF Adjustment'!C17</f>
-        <v>0.44600000000000006</v>
-      </c>
-      <c r="E11" s="45">
-        <f t="shared" si="2"/>
-        <v>0.44600000000000006</v>
-      </c>
-      <c r="G11">
-        <v>150</v>
-      </c>
-      <c r="H11" s="44">
-        <v>20000</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.39456636113540999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="77"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.75</v>
+      </c>
       <c r="D12" s="44"/>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="44"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="77"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13">
+        <f>C12*(22/24)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13">
+        <f>C11-C17</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13">
+        <f>C11*(8/24)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="15">
+        <f>C12-C15</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D18" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7869,7 +8025,7 @@
       <c r="B2">
         <v>2011</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="73">
         <f>DATE(B2,A2,1)</f>
         <v>40544</v>
       </c>
@@ -7893,7 +8049,7 @@
       <c r="B3">
         <v>2011</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="73">
         <f t="shared" ref="C3:C66" si="0">DATE(B3,A3,1)</f>
         <v>40575</v>
       </c>
@@ -7917,7 +8073,7 @@
       <c r="B4">
         <v>2011</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="73">
         <f t="shared" si="0"/>
         <v>40603</v>
       </c>
@@ -7941,7 +8097,7 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="73">
         <f t="shared" si="0"/>
         <v>40634</v>
       </c>
@@ -7965,7 +8121,7 @@
       <c r="B6">
         <v>2011</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="73">
         <f t="shared" si="0"/>
         <v>40664</v>
       </c>
@@ -7989,7 +8145,7 @@
       <c r="B7">
         <v>2011</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <f t="shared" si="0"/>
         <v>40695</v>
       </c>
@@ -8013,7 +8169,7 @@
       <c r="B8">
         <v>2011</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="73">
         <f t="shared" si="0"/>
         <v>40725</v>
       </c>
@@ -8037,7 +8193,7 @@
       <c r="B9">
         <v>2011</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="73">
         <f t="shared" si="0"/>
         <v>40756</v>
       </c>
@@ -8061,7 +8217,7 @@
       <c r="B10">
         <v>2011</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="73">
         <f t="shared" si="0"/>
         <v>40787</v>
       </c>
@@ -8085,7 +8241,7 @@
       <c r="B11">
         <v>2011</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="73">
         <f t="shared" si="0"/>
         <v>40817</v>
       </c>
@@ -8109,7 +8265,7 @@
       <c r="B12">
         <v>2011</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="73">
         <f t="shared" si="0"/>
         <v>40848</v>
       </c>
@@ -8133,7 +8289,7 @@
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="73">
         <f t="shared" si="0"/>
         <v>40878</v>
       </c>
@@ -8157,7 +8313,7 @@
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="73">
         <f t="shared" si="0"/>
         <v>40909</v>
       </c>
@@ -8181,7 +8337,7 @@
       <c r="B15">
         <v>2012</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="73">
         <f t="shared" si="0"/>
         <v>40940</v>
       </c>
@@ -8205,7 +8361,7 @@
       <c r="B16">
         <v>2012</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="73">
         <f t="shared" si="0"/>
         <v>40969</v>
       </c>
@@ -8229,7 +8385,7 @@
       <c r="B17">
         <v>2012</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="73">
         <f t="shared" si="0"/>
         <v>41000</v>
       </c>
@@ -8253,7 +8409,7 @@
       <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="73">
         <f t="shared" si="0"/>
         <v>41030</v>
       </c>
@@ -8277,7 +8433,7 @@
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="73">
         <f t="shared" si="0"/>
         <v>41061</v>
       </c>
@@ -8301,7 +8457,7 @@
       <c r="B20">
         <v>2012</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="73">
         <f t="shared" si="0"/>
         <v>41091</v>
       </c>
@@ -8325,7 +8481,7 @@
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="73">
         <f t="shared" si="0"/>
         <v>41122</v>
       </c>
@@ -8349,7 +8505,7 @@
       <c r="B22">
         <v>2012</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="73">
         <f t="shared" si="0"/>
         <v>41153</v>
       </c>
@@ -8373,7 +8529,7 @@
       <c r="B23">
         <v>2012</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="73">
         <f t="shared" si="0"/>
         <v>41183</v>
       </c>
@@ -8397,7 +8553,7 @@
       <c r="B24">
         <v>2012</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="73">
         <f t="shared" si="0"/>
         <v>41214</v>
       </c>
@@ -8421,7 +8577,7 @@
       <c r="B25">
         <v>2012</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="73">
         <f t="shared" si="0"/>
         <v>41244</v>
       </c>
@@ -8445,7 +8601,7 @@
       <c r="B26">
         <v>2013</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="73">
         <f t="shared" si="0"/>
         <v>41275</v>
       </c>
@@ -8469,7 +8625,7 @@
       <c r="B27">
         <v>2013</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="73">
         <f t="shared" si="0"/>
         <v>41306</v>
       </c>
@@ -8493,7 +8649,7 @@
       <c r="B28">
         <v>2013</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="73">
         <f t="shared" si="0"/>
         <v>41334</v>
       </c>
@@ -8517,7 +8673,7 @@
       <c r="B29">
         <v>2013</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="73">
         <f t="shared" si="0"/>
         <v>41365</v>
       </c>
@@ -8541,7 +8697,7 @@
       <c r="B30">
         <v>2013</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="73">
         <f t="shared" si="0"/>
         <v>41395</v>
       </c>
@@ -8565,7 +8721,7 @@
       <c r="B31">
         <v>2013</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="73">
         <f t="shared" si="0"/>
         <v>41426</v>
       </c>
@@ -8589,7 +8745,7 @@
       <c r="B32">
         <v>2013</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="73">
         <f t="shared" si="0"/>
         <v>41456</v>
       </c>
@@ -8613,7 +8769,7 @@
       <c r="B33">
         <v>2013</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="73">
         <f t="shared" si="0"/>
         <v>41487</v>
       </c>
@@ -8637,7 +8793,7 @@
       <c r="B34">
         <v>2013</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="73">
         <f t="shared" si="0"/>
         <v>41518</v>
       </c>
@@ -8661,7 +8817,7 @@
       <c r="B35">
         <v>2013</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="73">
         <f t="shared" si="0"/>
         <v>41548</v>
       </c>
@@ -8685,7 +8841,7 @@
       <c r="B36">
         <v>2013</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="73">
         <f t="shared" si="0"/>
         <v>41579</v>
       </c>
@@ -8709,7 +8865,7 @@
       <c r="B37">
         <v>2013</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="73">
         <f t="shared" si="0"/>
         <v>41609</v>
       </c>
@@ -8733,7 +8889,7 @@
       <c r="B38">
         <v>2014</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="73">
         <f t="shared" si="0"/>
         <v>41640</v>
       </c>
@@ -8757,7 +8913,7 @@
       <c r="B39">
         <v>2014</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="73">
         <f t="shared" si="0"/>
         <v>41671</v>
       </c>
@@ -8781,7 +8937,7 @@
       <c r="B40">
         <v>2014</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="73">
         <f t="shared" si="0"/>
         <v>41699</v>
       </c>
@@ -8805,7 +8961,7 @@
       <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="73">
         <f t="shared" si="0"/>
         <v>41730</v>
       </c>
@@ -8829,7 +8985,7 @@
       <c r="B42">
         <v>2014</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="73">
         <f t="shared" si="0"/>
         <v>41760</v>
       </c>
@@ -8853,7 +9009,7 @@
       <c r="B43">
         <v>2014</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="73">
         <f t="shared" si="0"/>
         <v>41791</v>
       </c>
@@ -8877,7 +9033,7 @@
       <c r="B44">
         <v>2014</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="73">
         <f t="shared" si="0"/>
         <v>41821</v>
       </c>
@@ -8901,7 +9057,7 @@
       <c r="B45">
         <v>2014</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="73">
         <f t="shared" si="0"/>
         <v>41852</v>
       </c>
@@ -8925,7 +9081,7 @@
       <c r="B46">
         <v>2014</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="73">
         <f t="shared" si="0"/>
         <v>41883</v>
       </c>
@@ -8949,7 +9105,7 @@
       <c r="B47">
         <v>2014</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="73">
         <f t="shared" si="0"/>
         <v>41913</v>
       </c>
@@ -8973,7 +9129,7 @@
       <c r="B48">
         <v>2014</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="73">
         <f t="shared" si="0"/>
         <v>41944</v>
       </c>
@@ -8997,7 +9153,7 @@
       <c r="B49">
         <v>2014</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="73">
         <f t="shared" si="0"/>
         <v>41974</v>
       </c>
@@ -9021,7 +9177,7 @@
       <c r="B50">
         <v>2015</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="73">
         <f t="shared" si="0"/>
         <v>42005</v>
       </c>
@@ -9045,7 +9201,7 @@
       <c r="B51">
         <v>2015</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="73">
         <f t="shared" si="0"/>
         <v>42036</v>
       </c>
@@ -9069,7 +9225,7 @@
       <c r="B52">
         <v>2015</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="73">
         <f t="shared" si="0"/>
         <v>42064</v>
       </c>
@@ -9093,7 +9249,7 @@
       <c r="B53">
         <v>2015</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="73">
         <f t="shared" si="0"/>
         <v>42095</v>
       </c>
@@ -9117,7 +9273,7 @@
       <c r="B54">
         <v>2015</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C54" s="73">
         <f t="shared" si="0"/>
         <v>42125</v>
       </c>
@@ -9141,7 +9297,7 @@
       <c r="B55">
         <v>2015</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="73">
         <f t="shared" si="0"/>
         <v>42156</v>
       </c>
@@ -9165,7 +9321,7 @@
       <c r="B56">
         <v>2015</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="73">
         <f t="shared" si="0"/>
         <v>42186</v>
       </c>
@@ -9189,7 +9345,7 @@
       <c r="B57">
         <v>2015</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="73">
         <f t="shared" si="0"/>
         <v>42217</v>
       </c>
@@ -9213,7 +9369,7 @@
       <c r="B58">
         <v>2015</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C58" s="73">
         <f t="shared" si="0"/>
         <v>42248</v>
       </c>
@@ -9237,7 +9393,7 @@
       <c r="B59">
         <v>2015</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C59" s="73">
         <f t="shared" si="0"/>
         <v>42278</v>
       </c>
@@ -9261,7 +9417,7 @@
       <c r="B60">
         <v>2015</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C60" s="73">
         <f t="shared" si="0"/>
         <v>42309</v>
       </c>
@@ -9285,7 +9441,7 @@
       <c r="B61">
         <v>2015</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C61" s="73">
         <f t="shared" si="0"/>
         <v>42339</v>
       </c>
@@ -9309,7 +9465,7 @@
       <c r="B62">
         <v>2016</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C62" s="73">
         <f t="shared" si="0"/>
         <v>42370</v>
       </c>
@@ -9333,7 +9489,7 @@
       <c r="B63">
         <v>2016</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="73">
         <f t="shared" si="0"/>
         <v>42401</v>
       </c>
@@ -9357,7 +9513,7 @@
       <c r="B64">
         <v>2016</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="73">
         <f t="shared" si="0"/>
         <v>42430</v>
       </c>
@@ -9381,7 +9537,7 @@
       <c r="B65">
         <v>2016</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="73">
         <f t="shared" si="0"/>
         <v>42461</v>
       </c>
@@ -9405,7 +9561,7 @@
       <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="73">
         <f t="shared" si="0"/>
         <v>42491</v>
       </c>
@@ -9429,7 +9585,7 @@
       <c r="B67">
         <v>2016</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="73">
         <f t="shared" ref="C67:C109" si="1">DATE(B67,A67,1)</f>
         <v>42522</v>
       </c>
@@ -9453,7 +9609,7 @@
       <c r="B68">
         <v>2016</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="73">
         <f t="shared" si="1"/>
         <v>42552</v>
       </c>
@@ -9477,7 +9633,7 @@
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="73">
         <f t="shared" si="1"/>
         <v>42583</v>
       </c>
@@ -9501,7 +9657,7 @@
       <c r="B70">
         <v>2016</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="73">
         <f t="shared" si="1"/>
         <v>42614</v>
       </c>
@@ -9525,7 +9681,7 @@
       <c r="B71">
         <v>2016</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="73">
         <f t="shared" si="1"/>
         <v>42644</v>
       </c>
@@ -9549,7 +9705,7 @@
       <c r="B72">
         <v>2016</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C72" s="73">
         <f t="shared" si="1"/>
         <v>42675</v>
       </c>
@@ -9573,7 +9729,7 @@
       <c r="B73">
         <v>2016</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C73" s="73">
         <f t="shared" si="1"/>
         <v>42705</v>
       </c>
@@ -9597,7 +9753,7 @@
       <c r="B74">
         <v>2017</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="73">
         <f t="shared" si="1"/>
         <v>42736</v>
       </c>
@@ -9621,7 +9777,7 @@
       <c r="B75">
         <v>2017</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C75" s="73">
         <f t="shared" si="1"/>
         <v>42767</v>
       </c>
@@ -9645,7 +9801,7 @@
       <c r="B76">
         <v>2017</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76" s="73">
         <f t="shared" si="1"/>
         <v>42795</v>
       </c>
@@ -9669,7 +9825,7 @@
       <c r="B77">
         <v>2017</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C77" s="73">
         <f t="shared" si="1"/>
         <v>42826</v>
       </c>
@@ -9693,7 +9849,7 @@
       <c r="B78">
         <v>2017</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78" s="73">
         <f t="shared" si="1"/>
         <v>42856</v>
       </c>
@@ -9717,7 +9873,7 @@
       <c r="B79">
         <v>2017</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="73">
         <f t="shared" si="1"/>
         <v>42887</v>
       </c>
@@ -9741,7 +9897,7 @@
       <c r="B80">
         <v>2017</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="73">
         <f t="shared" si="1"/>
         <v>42917</v>
       </c>
@@ -9765,7 +9921,7 @@
       <c r="B81">
         <v>2017</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="73">
         <f t="shared" si="1"/>
         <v>42948</v>
       </c>
@@ -9789,7 +9945,7 @@
       <c r="B82">
         <v>2017</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="73">
         <f t="shared" si="1"/>
         <v>42979</v>
       </c>
@@ -9813,7 +9969,7 @@
       <c r="B83">
         <v>2017</v>
       </c>
-      <c r="C83" s="74">
+      <c r="C83" s="73">
         <f t="shared" si="1"/>
         <v>43009</v>
       </c>
@@ -9837,7 +9993,7 @@
       <c r="B84">
         <v>2017</v>
       </c>
-      <c r="C84" s="74">
+      <c r="C84" s="73">
         <f t="shared" si="1"/>
         <v>43040</v>
       </c>
@@ -9861,7 +10017,7 @@
       <c r="B85">
         <v>2017</v>
       </c>
-      <c r="C85" s="74">
+      <c r="C85" s="73">
         <f t="shared" si="1"/>
         <v>43070</v>
       </c>
@@ -9885,7 +10041,7 @@
       <c r="B86">
         <v>2018</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="73">
         <f t="shared" si="1"/>
         <v>43101</v>
       </c>
@@ -9909,7 +10065,7 @@
       <c r="B87">
         <v>2018</v>
       </c>
-      <c r="C87" s="74">
+      <c r="C87" s="73">
         <f t="shared" si="1"/>
         <v>43132</v>
       </c>
@@ -9933,7 +10089,7 @@
       <c r="B88">
         <v>2018</v>
       </c>
-      <c r="C88" s="74">
+      <c r="C88" s="73">
         <f t="shared" si="1"/>
         <v>43160</v>
       </c>
@@ -9957,7 +10113,7 @@
       <c r="B89">
         <v>2018</v>
       </c>
-      <c r="C89" s="74">
+      <c r="C89" s="73">
         <f t="shared" si="1"/>
         <v>43191</v>
       </c>
@@ -9981,7 +10137,7 @@
       <c r="B90">
         <v>2018</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C90" s="73">
         <f t="shared" si="1"/>
         <v>43221</v>
       </c>
@@ -10005,7 +10161,7 @@
       <c r="B91">
         <v>2018</v>
       </c>
-      <c r="C91" s="74">
+      <c r="C91" s="73">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
@@ -10029,7 +10185,7 @@
       <c r="B92">
         <v>2018</v>
       </c>
-      <c r="C92" s="74">
+      <c r="C92" s="73">
         <f t="shared" si="1"/>
         <v>43282</v>
       </c>
@@ -10053,7 +10209,7 @@
       <c r="B93">
         <v>2018</v>
       </c>
-      <c r="C93" s="74">
+      <c r="C93" s="73">
         <f t="shared" si="1"/>
         <v>43313</v>
       </c>
@@ -10077,7 +10233,7 @@
       <c r="B94">
         <v>2018</v>
       </c>
-      <c r="C94" s="74">
+      <c r="C94" s="73">
         <f t="shared" si="1"/>
         <v>43344</v>
       </c>
@@ -10101,7 +10257,7 @@
       <c r="B95">
         <v>2018</v>
       </c>
-      <c r="C95" s="74">
+      <c r="C95" s="73">
         <f t="shared" si="1"/>
         <v>43374</v>
       </c>
@@ -10125,7 +10281,7 @@
       <c r="B96">
         <v>2018</v>
       </c>
-      <c r="C96" s="74">
+      <c r="C96" s="73">
         <f t="shared" si="1"/>
         <v>43405</v>
       </c>
@@ -10149,7 +10305,7 @@
       <c r="B97">
         <v>2018</v>
       </c>
-      <c r="C97" s="74">
+      <c r="C97" s="73">
         <f t="shared" si="1"/>
         <v>43435</v>
       </c>
@@ -10173,7 +10329,7 @@
       <c r="B98">
         <v>2019</v>
       </c>
-      <c r="C98" s="74">
+      <c r="C98" s="73">
         <f t="shared" si="1"/>
         <v>43466</v>
       </c>
@@ -10197,7 +10353,7 @@
       <c r="B99">
         <v>2019</v>
       </c>
-      <c r="C99" s="74">
+      <c r="C99" s="73">
         <f t="shared" si="1"/>
         <v>43497</v>
       </c>
@@ -10221,7 +10377,7 @@
       <c r="B100">
         <v>2019</v>
       </c>
-      <c r="C100" s="74">
+      <c r="C100" s="73">
         <f t="shared" si="1"/>
         <v>43525</v>
       </c>
@@ -10245,7 +10401,7 @@
       <c r="B101">
         <v>2019</v>
       </c>
-      <c r="C101" s="74">
+      <c r="C101" s="73">
         <f t="shared" si="1"/>
         <v>43556</v>
       </c>
@@ -10269,7 +10425,7 @@
       <c r="B102">
         <v>2019</v>
       </c>
-      <c r="C102" s="74">
+      <c r="C102" s="73">
         <f t="shared" si="1"/>
         <v>43586</v>
       </c>
@@ -10293,7 +10449,7 @@
       <c r="B103">
         <v>2019</v>
       </c>
-      <c r="C103" s="74">
+      <c r="C103" s="73">
         <f t="shared" si="1"/>
         <v>43617</v>
       </c>
@@ -10317,7 +10473,7 @@
       <c r="B104">
         <v>2019</v>
       </c>
-      <c r="C104" s="74">
+      <c r="C104" s="73">
         <f t="shared" si="1"/>
         <v>43647</v>
       </c>
@@ -10341,7 +10497,7 @@
       <c r="B105">
         <v>2019</v>
       </c>
-      <c r="C105" s="74">
+      <c r="C105" s="73">
         <f t="shared" si="1"/>
         <v>43678</v>
       </c>
@@ -10365,7 +10521,7 @@
       <c r="B106">
         <v>2019</v>
       </c>
-      <c r="C106" s="74">
+      <c r="C106" s="73">
         <f t="shared" si="1"/>
         <v>43709</v>
       </c>
@@ -10389,7 +10545,7 @@
       <c r="B107">
         <v>2019</v>
       </c>
-      <c r="C107" s="74">
+      <c r="C107" s="73">
         <f t="shared" si="1"/>
         <v>43739</v>
       </c>
@@ -10413,7 +10569,7 @@
       <c r="B108">
         <v>2019</v>
       </c>
-      <c r="C108" s="74">
+      <c r="C108" s="73">
         <f t="shared" si="1"/>
         <v>43770</v>
       </c>
@@ -10437,7 +10593,7 @@
       <c r="B109">
         <v>2019</v>
       </c>
-      <c r="C109" s="74">
+      <c r="C109" s="73">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
@@ -10461,229 +10617,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564981C-E4C1-4223-BBB8-B7B238FE5FB5}">
-  <dimension ref="B2:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="29">
-        <f>LCA_Daily!D3</f>
-        <v>0.38667477943413398</v>
-      </c>
-      <c r="D3" s="28">
-        <v>600</v>
-      </c>
-      <c r="E3" s="27">
-        <v>85</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="33">
-        <f>C3*(1-(E3/D3))+(E3/D3)</f>
-        <v>0.47356251901429836</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="29">
-        <f>LCA_Daily!D4</f>
-        <v>0.470946151505932</v>
-      </c>
-      <c r="D4" s="28">
-        <v>460</v>
-      </c>
-      <c r="E4" s="27">
-        <v>85</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="33">
-        <f>C4*(1-(E4/D4))+(E4/D4)</f>
-        <v>0.56870610177114023</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="29">
-        <f>LCA_Daily!D5</f>
-        <v>0.52327350167325803</v>
-      </c>
-      <c r="D5" s="28">
-        <v>405</v>
-      </c>
-      <c r="E5" s="27">
-        <v>85</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="33">
-        <f>C5*(1-(E5/D5))+(E5/D5)</f>
-        <v>0.62332721119862367</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="29">
-        <f>LCA_Daily!D6</f>
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="D6" s="28">
-        <v>942</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="33">
-        <f>C6*(1-(E6/D6))+(E6/D6)</f>
-        <v>0.20687557042896301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="29">
-        <f>LCA_Daily!D7</f>
-        <v>0.20687557042896301</v>
-      </c>
-      <c r="D7" s="28">
-        <v>942</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="33">
-        <f>C7*(1-(E7/D7))+(E7/D7)</f>
-        <v>0.20687557042896301</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="73"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="73"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="13">
-        <f>C12*(22/24)</f>
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13">
-        <f>C11-C17</f>
-        <v>0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13">
-        <f>C11*(8/24)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="15">
-        <f>C12-C15</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13276EEC-9828-43A0-B1C3-364F0B6ECE82}">
   <dimension ref="A1:N722"/>
   <sheetViews>

--- a/data/LCA.xlsx
+++ b/data/LCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnergyDevelopment_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC218D-85D7-4D9B-B245-64E188626E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52578DDB-3665-46FB-8BC2-A0B47BCC9579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DB39A55B-965A-4C48-890F-EBD6380D77B8}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Graphing!$A$2:$N$424</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="71">
   <si>
     <t>Turbine</t>
   </si>
@@ -249,9 +250,6 @@
     <t>NG_Price</t>
   </si>
   <si>
-    <t>Raw CF Daily</t>
-  </si>
-  <si>
     <t>Raw CF Hourly</t>
   </si>
   <si>
@@ -263,8 +261,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -515,13 +513,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,11 +525,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5719,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B724EB-6910-45D9-ADF5-6C5EE28B5832}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,36 +5728,37 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>50</v>
       </c>
@@ -5775,11 +5774,11 @@
       <c r="E2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>71</v>
+      <c r="G2" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>19</v>
@@ -5814,23 +5813,20 @@
       <c r="R2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="32" t="s">
+      <c r="S2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="T2" s="30" t="s">
         <v>12</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
@@ -5879,23 +5875,20 @@
       <c r="R3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="39" t="s">
+      <c r="S3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="T3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="U3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="V3" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5905,12 +5898,12 @@
       <c r="C4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>0.39965009698398801</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <f>'CF Adjustment'!I3</f>
-        <v>0.48469966657792307</v>
+        <v>0.48469966657792302</v>
       </c>
       <c r="F4" s="25">
         <v>6800</v>
@@ -5926,22 +5919,22 @@
       <c r="J4">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <f>J4*G4/(10^3)</f>
         <v>0.17054400000000003</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <f>K4*H4*8670*E4/2000</f>
-        <v>215.00547445578673</v>
+        <v>215.0054744557867</v>
       </c>
       <c r="M4">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="34">
         <f>M4*G4/(10^3)</f>
         <v>5.5352000000000005E-3</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <f>N4*H4*8670*E4/2000</f>
         <v>6.9782478551439544</v>
       </c>
@@ -5952,27 +5945,26 @@
         <f>P4*G4/(10^3)</f>
         <v>875.16000000000008</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="36">
         <f>Q4*H4*8670*E4/2000</f>
         <v>1103317.5662862738</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="5">
+      <c r="S4" s="5">
         <v>200</v>
       </c>
-      <c r="U4" s="38">
-        <f>$E4*8760*$T4*H4/10^6</f>
-        <v>509.51628950671278</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="T4" s="36">
+        <f>$E4*8760*$S4*H4/10^6</f>
+        <v>509.51628950671267</v>
+      </c>
+      <c r="U4" s="5">
         <v>250</v>
       </c>
-      <c r="W4" s="38">
-        <f>$E4*8760*$V4*H4/10^6</f>
-        <v>636.89536188339105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V4" s="36">
+        <f>$E4*8760*$U4*H4/10^6</f>
+        <v>636.89536188339082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -5982,10 +5974,10 @@
       <c r="C5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>0.50860178247690002</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <f>'CF Adjustment'!I4</f>
         <v>0.59940362701921202</v>
       </c>
@@ -5993,7 +5985,7 @@
         <v>6400</v>
       </c>
       <c r="G5" s="25">
-        <f t="shared" ref="G5:G8" si="0">F5*1.1</f>
+        <f>F5*1.1</f>
         <v>7040.0000000000009</v>
       </c>
       <c r="H5" s="23">
@@ -6003,23 +5995,23 @@
       <c r="J5">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <f>J5*G5/(10^3)</f>
         <v>0.16051200000000002</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <f>K5*H5*8670*E5/2000</f>
         <v>191.8553022578329</v>
       </c>
       <c r="M5">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="34">
         <f>M5*G5/(10^3)</f>
         <v>5.2096000000000009E-3</v>
       </c>
-      <c r="O5" s="37">
-        <f t="shared" ref="O5:O8" si="1">N5*H5*8670*E5/2000</f>
+      <c r="O5" s="35">
+        <f>N5*H5*8670*E5/2000</f>
         <v>6.2268826171401903</v>
       </c>
       <c r="P5" s="5">
@@ -6029,27 +6021,26 @@
         <f>P5*G5/(10^3)</f>
         <v>823.68000000000006</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="36">
         <f>Q5*H5*8670*E5/2000</f>
         <v>984520.63000730053</v>
       </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="5">
+      <c r="S5" s="5">
         <v>200</v>
       </c>
-      <c r="U5" s="38">
-        <f>$E5*8760*$T5*H5/10^6</f>
+      <c r="T5" s="36">
+        <f>$E5*8760*$S5*H5/10^6</f>
         <v>483.07137108732331</v>
       </c>
-      <c r="V5" s="5">
+      <c r="U5" s="5">
         <v>250</v>
       </c>
-      <c r="W5" s="38">
-        <f t="shared" ref="W5:W8" si="2">$E5*8760*$V5*H5/10^6</f>
+      <c r="V5" s="36">
+        <f>$E5*8760*$U5*H5/10^6</f>
         <v>603.83921385915426</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -6059,10 +6050,10 @@
       <c r="C6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>0.57685822589000002</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <f>'CF Adjustment'!I5</f>
         <v>0.66566575872790124</v>
       </c>
@@ -6070,7 +6061,7 @@
         <v>6200</v>
       </c>
       <c r="G6" s="25">
-        <f t="shared" si="0"/>
+        <f>F6*1.1</f>
         <v>6820.0000000000009</v>
       </c>
       <c r="H6" s="23">
@@ -6080,53 +6071,52 @@
       <c r="J6">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="K6" s="37">
-        <f t="shared" ref="K5:K8" si="3">J6*G6/(10^3)</f>
+      <c r="K6" s="35">
+        <f>J6*G6/(10^3)</f>
         <v>0.15549600000000005</v>
       </c>
-      <c r="L6" s="37">
-        <f t="shared" ref="L5:L12" si="4">K6*H6*8670*E6/2000</f>
+      <c r="L6" s="35">
+        <f t="shared" ref="L6:L12" si="0">K6*H6*8670*E6/2000</f>
         <v>181.72704489251777</v>
       </c>
       <c r="M6">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="N6" s="36">
-        <f t="shared" ref="N5:N8" si="5">M6*G6/(10^3)</f>
+      <c r="N6" s="34">
+        <f>M6*G6/(10^3)</f>
         <v>5.0468000000000006E-3</v>
       </c>
-      <c r="O6" s="37">
-        <f t="shared" si="1"/>
+      <c r="O6" s="35">
+        <f>N6*H6*8670*E6/2000</f>
         <v>5.8981584745817166</v>
       </c>
       <c r="P6" s="5">
         <v>117</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q5:Q8" si="6">P6*G6/(10^3)</f>
+        <f>P6*G6/(10^3)</f>
         <v>797.94000000000017</v>
       </c>
-      <c r="R6" s="38">
-        <f t="shared" ref="R5:R8" si="7">Q6*H6*8670*E6/2000</f>
+      <c r="R6" s="36">
+        <f>Q6*H6*8670*E6/2000</f>
         <v>932546.67773792008</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="5">
+      <c r="S6" s="5">
         <v>200</v>
       </c>
-      <c r="U6" s="38">
-        <f t="shared" ref="U5:U8" si="8">$E6*8760*$T6*H6/10^6</f>
+      <c r="T6" s="36">
+        <f>$E6*8760*$S6*H6/10^6</f>
         <v>472.32979576296964</v>
       </c>
-      <c r="V6" s="5">
+      <c r="U6" s="5">
         <v>250</v>
       </c>
-      <c r="W6" s="38">
-        <f t="shared" si="2"/>
+      <c r="V6" s="36">
+        <f>$E6*8760*$U6*H6/10^6</f>
         <v>590.41224470371196</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -6136,10 +6126,10 @@
       <c r="C7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>0.39456636113540999</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <f>'CF Adjustment'!I6</f>
         <v>0.39456636113540999</v>
       </c>
@@ -6147,7 +6137,7 @@
         <v>7760</v>
       </c>
       <c r="G7" s="25">
-        <f t="shared" si="0"/>
+        <f>F7*1.1</f>
         <v>8536</v>
       </c>
       <c r="H7" s="23">
@@ -6157,53 +6147,52 @@
       <c r="J7">
         <v>0.15</v>
       </c>
-      <c r="K7" s="37">
-        <f t="shared" si="3"/>
+      <c r="K7" s="35">
+        <f>J7*G7/(10^3)</f>
         <v>1.2803999999999998</v>
       </c>
-      <c r="L7" s="37">
-        <f t="shared" si="4"/>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
         <v>2063.030870579546</v>
       </c>
       <c r="M7">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="N7" s="36">
-        <f t="shared" si="5"/>
+      <c r="N7" s="34">
+        <f>M7*G7/(10^3)</f>
         <v>6.3166399999999992E-3</v>
       </c>
-      <c r="O7" s="37">
-        <f t="shared" si="1"/>
+      <c r="O7" s="35">
+        <f>N7*H7*8670*E7/2000</f>
         <v>10.177618961525761</v>
       </c>
       <c r="P7" s="5">
         <v>117</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
+        <f>P7*G7/(10^3)</f>
         <v>998.71199999999999</v>
       </c>
-      <c r="R7" s="38">
-        <f t="shared" si="7"/>
+      <c r="R7" s="36">
+        <f>Q7*H7*8670*E7/2000</f>
         <v>1609164.0790520462</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="5">
+      <c r="S7" s="5">
         <v>200</v>
       </c>
-      <c r="U7" s="38">
-        <f t="shared" si="8"/>
+      <c r="T7" s="36">
+        <f>$E7*8760*$S7*H7/10^6</f>
         <v>651.18600935610243</v>
       </c>
-      <c r="V7" s="5">
+      <c r="U7" s="5">
         <v>250</v>
       </c>
-      <c r="W7" s="38">
-        <f t="shared" si="2"/>
+      <c r="V7" s="36">
+        <f>$E7*8760*$U7*H7/10^6</f>
         <v>813.9825116951281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -6213,10 +6202,10 @@
       <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>0.39456636113540999</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <f>'CF Adjustment'!I7</f>
         <v>0.39456636113540999</v>
       </c>
@@ -6224,7 +6213,7 @@
         <v>7760</v>
       </c>
       <c r="G8" s="25">
-        <f t="shared" si="0"/>
+        <f>F8*1.1</f>
         <v>8536</v>
       </c>
       <c r="H8" s="23">
@@ -6234,54 +6223,53 @@
       <c r="J8">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="K8" s="37">
-        <f t="shared" si="3"/>
+      <c r="K8" s="35">
+        <f>J8*G8/(10^3)</f>
         <v>0.19462080000000001</v>
       </c>
-      <c r="L8" s="37">
-        <f t="shared" si="4"/>
+      <c r="L8" s="35">
+        <f t="shared" si="0"/>
         <v>313.580692328091</v>
       </c>
       <c r="M8">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="N8" s="36">
-        <f t="shared" si="5"/>
+      <c r="N8" s="34">
+        <f>M8*G8/(10^3)</f>
         <v>6.3166399999999992E-3</v>
       </c>
-      <c r="O8" s="37">
-        <f t="shared" si="1"/>
+      <c r="O8" s="35">
+        <f>N8*H8*8670*E8/2000</f>
         <v>10.177618961525761</v>
       </c>
       <c r="P8" s="5">
         <v>117</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
+        <f>P8*G8/(10^3)</f>
         <v>998.71199999999999</v>
       </c>
-      <c r="R8" s="38">
-        <f t="shared" si="7"/>
+      <c r="R8" s="36">
+        <f>Q8*H8*8670*E8/2000</f>
         <v>1609164.0790520462</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="5">
+      <c r="S8" s="5">
         <v>200</v>
       </c>
-      <c r="U8" s="38">
-        <f t="shared" si="8"/>
+      <c r="T8" s="36">
+        <f>$E8*8760*$S8*H8/10^6</f>
         <v>651.18600935610243</v>
       </c>
-      <c r="V8" s="5">
+      <c r="U8" s="5">
         <v>250</v>
       </c>
-      <c r="W8" s="38">
-        <f t="shared" si="2"/>
+      <c r="V8" s="36">
+        <f>$E8*8760*$U8*H8/10^6</f>
         <v>813.9825116951281</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -6290,7 +6278,7 @@
       <c r="C9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <f>'CF Adjustment'!C12*0.203+'CF Adjustment'!C11*0.702</f>
         <v>0.32774999999999999</v>
       </c>
@@ -6305,26 +6293,23 @@
         <v>8000</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K5:K12" si="9">J9*F9/(10^3)</f>
+        <f t="shared" ref="K9:K12" si="1">J9*F9/(10^3)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9">
         <v>55</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="35">
         <f>E9*Q9*8760*H9/(10^6)</f>
         <v>39.477487499999995</v>
       </c>
-      <c r="S9" s="23">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -6333,12 +6318,12 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <f>0.53*'CF Adjustment'!C15+0.342*'CF Adjustment'!C16+0.49*'CF Adjustment'!C17+0.53*'CF Adjustment'!C18</f>
         <v>0.49533333333333335</v>
       </c>
       <c r="E10" s="24">
-        <f t="shared" ref="E10:E12" si="10">D10</f>
+        <f>D10</f>
         <v>0.49533333333333335</v>
       </c>
       <c r="H10">
@@ -6348,26 +6333,23 @@
         <v>38000</v>
       </c>
       <c r="K10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10">
         <v>13</v>
       </c>
-      <c r="R10" s="37">
-        <f t="shared" ref="R10:R12" si="11">E10*Q10*8760*H10/(10^6)</f>
+      <c r="R10" s="35">
+        <f>E10*Q10*8760*H10/(10^6)</f>
         <v>14.102140000000002</v>
       </c>
-      <c r="S10" s="23">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -6376,12 +6358,12 @@
       <c r="C11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="29">
         <f>0.498*'CF Adjustment'!C12+0.435*'CF Adjustment'!C16+0.456*'CF Adjustment'!C17</f>
         <v>0.48399999999999999</v>
       </c>
       <c r="E11" s="24">
-        <f t="shared" si="10"/>
+        <f>D11</f>
         <v>0.48399999999999999</v>
       </c>
       <c r="H11">
@@ -6391,26 +6373,23 @@
         <v>20000</v>
       </c>
       <c r="K11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q11">
         <v>13</v>
       </c>
-      <c r="R11" s="37">
-        <f t="shared" si="11"/>
+      <c r="R11" s="35">
+        <f>E11*Q11*8760*H11/(10^6)</f>
         <v>11.023584</v>
       </c>
-      <c r="S11" s="23">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -6419,12 +6398,12 @@
       <c r="C12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <f>0.454*'CF Adjustment'!C12+0.419*'CF Adjustment'!C16+0.428*'CF Adjustment'!C17</f>
         <v>0.44600000000000006</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="10"/>
+        <f>D12</f>
         <v>0.44600000000000006</v>
       </c>
       <c r="H12">
@@ -6434,35 +6413,30 @@
         <v>20000</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12">
         <v>13</v>
       </c>
-      <c r="R12" s="37">
-        <f t="shared" si="11"/>
+      <c r="R12" s="35">
+        <f>E12*Q12*8760*H12/(10^6)</f>
         <v>7.6185720000000021</v>
       </c>
-      <c r="S12" s="23">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I14" s="23"/>
-      <c r="S14" s="23"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T15" t="s">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6476,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564981C-E4C1-4223-BBB8-B7B238FE5FB5}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,11 +6468,9 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>44</v>
@@ -6520,10 +6492,7 @@
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
-        <f>LCA!D4</f>
-        <v>0.39965009698398801</v>
-      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="15">
         <f>LCA!D4</f>
         <v>0.39965009698398801</v>
@@ -6537,23 +6506,17 @@
       <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19">
-        <f>C3*(1-(F3/E3))+(F3/E3)</f>
-        <v>0.48469966657792307</v>
-      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="19">
-        <f>D3*(1-(F3/E3))+(F3/E3)</f>
-        <v>0.48469966657792307</v>
+        <f>F3/E3+(E3-F3)*D3/E3</f>
+        <v>0.48469966657792302</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
-        <f>LCA!D5</f>
-        <v>0.50860178247690002</v>
-      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="15">
         <f>LCA!D5</f>
         <v>0.50860178247690002</v>
@@ -6567,12 +6530,9 @@
       <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
-        <f>C4*(1-(F4/E4))+(F4/E4)</f>
-        <v>0.59940362701921202</v>
-      </c>
+      <c r="H4" s="19"/>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:I7" si="0">D4*(1-(F4/E4))+(F4/E4)</f>
+        <f t="shared" ref="I4:I7" si="0">F4/E4+(E4-F4)*D4/E4</f>
         <v>0.59940362701921202</v>
       </c>
     </row>
@@ -6580,10 +6540,7 @@
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
-        <f>LCA!D6</f>
-        <v>0.57685822589000002</v>
-      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="15">
         <f>LCA!D6</f>
         <v>0.57685822589000002</v>
@@ -6597,10 +6554,7 @@
       <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
-        <f>C5*(1-(F5/E5))+(F5/E5)</f>
-        <v>0.66566575872790124</v>
-      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>0.66566575872790124</v>
@@ -6610,10 +6564,7 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
-        <f>LCA!D7</f>
-        <v>0.39456636113540999</v>
-      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="15">
         <f>LCA!D7</f>
         <v>0.39456636113540999</v>
@@ -6627,10 +6578,7 @@
       <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="19">
-        <f>C6*(1-(F6/E6))+(F6/E6)</f>
-        <v>0.39456636113540999</v>
-      </c>
+      <c r="H6" s="19"/>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>0.39456636113540999</v>
@@ -6640,10 +6588,7 @@
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15">
-        <f>LCA!D8</f>
-        <v>0.39456636113540999</v>
-      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="15">
         <f>LCA!D8</f>
         <v>0.39456636113540999</v>
@@ -6657,10 +6602,7 @@
       <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="19">
-        <f>C7*(1-(F7/E7))+(F7/E7)</f>
-        <v>0.39456636113540999</v>
-      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
         <v>0.39456636113540999</v>
@@ -6668,11 +6610,11 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -6694,11 +6636,11 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -6790,7 +6732,7 @@
       <c r="B2">
         <v>2011</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <f>DATE(B2,A2,1)</f>
         <v>40544</v>
       </c>
@@ -6814,7 +6756,7 @@
       <c r="B3">
         <v>2011</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <f t="shared" ref="C3:C66" si="0">DATE(B3,A3,1)</f>
         <v>40575</v>
       </c>
@@ -6838,7 +6780,7 @@
       <c r="B4">
         <v>2011</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <f t="shared" si="0"/>
         <v>40603</v>
       </c>
@@ -6862,7 +6804,7 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
         <v>40634</v>
       </c>
@@ -6886,7 +6828,7 @@
       <c r="B6">
         <v>2011</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>40664</v>
       </c>
@@ -6910,7 +6852,7 @@
       <c r="B7">
         <v>2011</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>40695</v>
       </c>
@@ -6934,7 +6876,7 @@
       <c r="B8">
         <v>2011</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>40725</v>
       </c>
@@ -6958,7 +6900,7 @@
       <c r="B9">
         <v>2011</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>40756</v>
       </c>
@@ -6982,7 +6924,7 @@
       <c r="B10">
         <v>2011</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
         <v>40787</v>
       </c>
@@ -7006,7 +6948,7 @@
       <c r="B11">
         <v>2011</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
         <v>40817</v>
       </c>
@@ -7030,7 +6972,7 @@
       <c r="B12">
         <v>2011</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>40848</v>
       </c>
@@ -7054,7 +6996,7 @@
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
         <v>40878</v>
       </c>
@@ -7078,7 +7020,7 @@
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <f t="shared" si="0"/>
         <v>40909</v>
       </c>
@@ -7102,7 +7044,7 @@
       <c r="B15">
         <v>2012</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <f t="shared" si="0"/>
         <v>40940</v>
       </c>
@@ -7126,7 +7068,7 @@
       <c r="B16">
         <v>2012</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>40969</v>
       </c>
@@ -7150,7 +7092,7 @@
       <c r="B17">
         <v>2012</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <f t="shared" si="0"/>
         <v>41000</v>
       </c>
@@ -7174,7 +7116,7 @@
       <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="28">
         <f t="shared" si="0"/>
         <v>41030</v>
       </c>
@@ -7198,7 +7140,7 @@
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="28">
         <f t="shared" si="0"/>
         <v>41061</v>
       </c>
@@ -7222,7 +7164,7 @@
       <c r="B20">
         <v>2012</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="28">
         <f t="shared" si="0"/>
         <v>41091</v>
       </c>
@@ -7246,7 +7188,7 @@
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <f t="shared" si="0"/>
         <v>41122</v>
       </c>
@@ -7270,7 +7212,7 @@
       <c r="B22">
         <v>2012</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="28">
         <f t="shared" si="0"/>
         <v>41153</v>
       </c>
@@ -7294,7 +7236,7 @@
       <c r="B23">
         <v>2012</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="28">
         <f t="shared" si="0"/>
         <v>41183</v>
       </c>
@@ -7318,7 +7260,7 @@
       <c r="B24">
         <v>2012</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="28">
         <f t="shared" si="0"/>
         <v>41214</v>
       </c>
@@ -7342,7 +7284,7 @@
       <c r="B25">
         <v>2012</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="28">
         <f t="shared" si="0"/>
         <v>41244</v>
       </c>
@@ -7366,7 +7308,7 @@
       <c r="B26">
         <v>2013</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="28">
         <f t="shared" si="0"/>
         <v>41275</v>
       </c>
@@ -7390,7 +7332,7 @@
       <c r="B27">
         <v>2013</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="28">
         <f t="shared" si="0"/>
         <v>41306</v>
       </c>
@@ -7414,7 +7356,7 @@
       <c r="B28">
         <v>2013</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="28">
         <f t="shared" si="0"/>
         <v>41334</v>
       </c>
@@ -7438,7 +7380,7 @@
       <c r="B29">
         <v>2013</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <f t="shared" si="0"/>
         <v>41365</v>
       </c>
@@ -7462,7 +7404,7 @@
       <c r="B30">
         <v>2013</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="28">
         <f t="shared" si="0"/>
         <v>41395</v>
       </c>
@@ -7486,7 +7428,7 @@
       <c r="B31">
         <v>2013</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="28">
         <f t="shared" si="0"/>
         <v>41426</v>
       </c>
@@ -7510,7 +7452,7 @@
       <c r="B32">
         <v>2013</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="28">
         <f t="shared" si="0"/>
         <v>41456</v>
       </c>
@@ -7534,7 +7476,7 @@
       <c r="B33">
         <v>2013</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="28">
         <f t="shared" si="0"/>
         <v>41487</v>
       </c>
@@ -7558,7 +7500,7 @@
       <c r="B34">
         <v>2013</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="28">
         <f t="shared" si="0"/>
         <v>41518</v>
       </c>
@@ -7582,7 +7524,7 @@
       <c r="B35">
         <v>2013</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="28">
         <f t="shared" si="0"/>
         <v>41548</v>
       </c>
@@ -7606,7 +7548,7 @@
       <c r="B36">
         <v>2013</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="28">
         <f t="shared" si="0"/>
         <v>41579</v>
       </c>
@@ -7630,7 +7572,7 @@
       <c r="B37">
         <v>2013</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="28">
         <f t="shared" si="0"/>
         <v>41609</v>
       </c>
@@ -7654,7 +7596,7 @@
       <c r="B38">
         <v>2014</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="28">
         <f t="shared" si="0"/>
         <v>41640</v>
       </c>
@@ -7678,7 +7620,7 @@
       <c r="B39">
         <v>2014</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="28">
         <f t="shared" si="0"/>
         <v>41671</v>
       </c>
@@ -7702,7 +7644,7 @@
       <c r="B40">
         <v>2014</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="28">
         <f t="shared" si="0"/>
         <v>41699</v>
       </c>
@@ -7726,7 +7668,7 @@
       <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="28">
         <f t="shared" si="0"/>
         <v>41730</v>
       </c>
@@ -7750,7 +7692,7 @@
       <c r="B42">
         <v>2014</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="28">
         <f t="shared" si="0"/>
         <v>41760</v>
       </c>
@@ -7774,7 +7716,7 @@
       <c r="B43">
         <v>2014</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="28">
         <f t="shared" si="0"/>
         <v>41791</v>
       </c>
@@ -7798,7 +7740,7 @@
       <c r="B44">
         <v>2014</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="28">
         <f t="shared" si="0"/>
         <v>41821</v>
       </c>
@@ -7822,7 +7764,7 @@
       <c r="B45">
         <v>2014</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="28">
         <f t="shared" si="0"/>
         <v>41852</v>
       </c>
@@ -7846,7 +7788,7 @@
       <c r="B46">
         <v>2014</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="28">
         <f t="shared" si="0"/>
         <v>41883</v>
       </c>
@@ -7870,7 +7812,7 @@
       <c r="B47">
         <v>2014</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="28">
         <f t="shared" si="0"/>
         <v>41913</v>
       </c>
@@ -7894,7 +7836,7 @@
       <c r="B48">
         <v>2014</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="28">
         <f t="shared" si="0"/>
         <v>41944</v>
       </c>
@@ -7918,7 +7860,7 @@
       <c r="B49">
         <v>2014</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="28">
         <f t="shared" si="0"/>
         <v>41974</v>
       </c>
@@ -7942,7 +7884,7 @@
       <c r="B50">
         <v>2015</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="28">
         <f t="shared" si="0"/>
         <v>42005</v>
       </c>
@@ -7966,7 +7908,7 @@
       <c r="B51">
         <v>2015</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f t="shared" si="0"/>
         <v>42036</v>
       </c>
@@ -7990,7 +7932,7 @@
       <c r="B52">
         <v>2015</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="28">
         <f t="shared" si="0"/>
         <v>42064</v>
       </c>
@@ -8014,7 +7956,7 @@
       <c r="B53">
         <v>2015</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="28">
         <f t="shared" si="0"/>
         <v>42095</v>
       </c>
@@ -8038,7 +7980,7 @@
       <c r="B54">
         <v>2015</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="28">
         <f t="shared" si="0"/>
         <v>42125</v>
       </c>
@@ -8062,7 +8004,7 @@
       <c r="B55">
         <v>2015</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="28">
         <f t="shared" si="0"/>
         <v>42156</v>
       </c>
@@ -8086,7 +8028,7 @@
       <c r="B56">
         <v>2015</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="28">
         <f t="shared" si="0"/>
         <v>42186</v>
       </c>
@@ -8110,7 +8052,7 @@
       <c r="B57">
         <v>2015</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f t="shared" si="0"/>
         <v>42217</v>
       </c>
@@ -8134,7 +8076,7 @@
       <c r="B58">
         <v>2015</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="28">
         <f t="shared" si="0"/>
         <v>42248</v>
       </c>
@@ -8158,7 +8100,7 @@
       <c r="B59">
         <v>2015</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="28">
         <f t="shared" si="0"/>
         <v>42278</v>
       </c>
@@ -8182,7 +8124,7 @@
       <c r="B60">
         <v>2015</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="28">
         <f t="shared" si="0"/>
         <v>42309</v>
       </c>
@@ -8206,7 +8148,7 @@
       <c r="B61">
         <v>2015</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="28">
         <f t="shared" si="0"/>
         <v>42339</v>
       </c>
@@ -8230,7 +8172,7 @@
       <c r="B62">
         <v>2016</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="28">
         <f t="shared" si="0"/>
         <v>42370</v>
       </c>
@@ -8254,7 +8196,7 @@
       <c r="B63">
         <v>2016</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f t="shared" si="0"/>
         <v>42401</v>
       </c>
@@ -8278,7 +8220,7 @@
       <c r="B64">
         <v>2016</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="28">
         <f t="shared" si="0"/>
         <v>42430</v>
       </c>
@@ -8302,7 +8244,7 @@
       <c r="B65">
         <v>2016</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="28">
         <f t="shared" si="0"/>
         <v>42461</v>
       </c>
@@ -8326,7 +8268,7 @@
       <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="28">
         <f t="shared" si="0"/>
         <v>42491</v>
       </c>
@@ -8350,7 +8292,7 @@
       <c r="B67">
         <v>2016</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="28">
         <f t="shared" ref="C67:C109" si="1">DATE(B67,A67,1)</f>
         <v>42522</v>
       </c>
@@ -8374,7 +8316,7 @@
       <c r="B68">
         <v>2016</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="28">
         <f t="shared" si="1"/>
         <v>42552</v>
       </c>
@@ -8398,7 +8340,7 @@
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f t="shared" si="1"/>
         <v>42583</v>
       </c>
@@ -8422,7 +8364,7 @@
       <c r="B70">
         <v>2016</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="28">
         <f t="shared" si="1"/>
         <v>42614</v>
       </c>
@@ -8446,7 +8388,7 @@
       <c r="B71">
         <v>2016</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="28">
         <f t="shared" si="1"/>
         <v>42644</v>
       </c>
@@ -8470,7 +8412,7 @@
       <c r="B72">
         <v>2016</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="28">
         <f t="shared" si="1"/>
         <v>42675</v>
       </c>
@@ -8494,7 +8436,7 @@
       <c r="B73">
         <v>2016</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="28">
         <f t="shared" si="1"/>
         <v>42705</v>
       </c>
@@ -8518,7 +8460,7 @@
       <c r="B74">
         <v>2017</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="28">
         <f t="shared" si="1"/>
         <v>42736</v>
       </c>
@@ -8542,7 +8484,7 @@
       <c r="B75">
         <v>2017</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f t="shared" si="1"/>
         <v>42767</v>
       </c>
@@ -8566,7 +8508,7 @@
       <c r="B76">
         <v>2017</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="28">
         <f t="shared" si="1"/>
         <v>42795</v>
       </c>
@@ -8590,7 +8532,7 @@
       <c r="B77">
         <v>2017</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="28">
         <f t="shared" si="1"/>
         <v>42826</v>
       </c>
@@ -8614,7 +8556,7 @@
       <c r="B78">
         <v>2017</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="28">
         <f t="shared" si="1"/>
         <v>42856</v>
       </c>
@@ -8638,7 +8580,7 @@
       <c r="B79">
         <v>2017</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="28">
         <f t="shared" si="1"/>
         <v>42887</v>
       </c>
@@ -8662,7 +8604,7 @@
       <c r="B80">
         <v>2017</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="28">
         <f t="shared" si="1"/>
         <v>42917</v>
       </c>
@@ -8686,7 +8628,7 @@
       <c r="B81">
         <v>2017</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f t="shared" si="1"/>
         <v>42948</v>
       </c>
@@ -8710,7 +8652,7 @@
       <c r="B82">
         <v>2017</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="28">
         <f t="shared" si="1"/>
         <v>42979</v>
       </c>
@@ -8734,7 +8676,7 @@
       <c r="B83">
         <v>2017</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="28">
         <f t="shared" si="1"/>
         <v>43009</v>
       </c>
@@ -8758,7 +8700,7 @@
       <c r="B84">
         <v>2017</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="28">
         <f t="shared" si="1"/>
         <v>43040</v>
       </c>
@@ -8782,7 +8724,7 @@
       <c r="B85">
         <v>2017</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="28">
         <f t="shared" si="1"/>
         <v>43070</v>
       </c>
@@ -8806,7 +8748,7 @@
       <c r="B86">
         <v>2018</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="28">
         <f t="shared" si="1"/>
         <v>43101</v>
       </c>
@@ -8830,7 +8772,7 @@
       <c r="B87">
         <v>2018</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f t="shared" si="1"/>
         <v>43132</v>
       </c>
@@ -8854,7 +8796,7 @@
       <c r="B88">
         <v>2018</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="28">
         <f t="shared" si="1"/>
         <v>43160</v>
       </c>
@@ -8878,7 +8820,7 @@
       <c r="B89">
         <v>2018</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="28">
         <f t="shared" si="1"/>
         <v>43191</v>
       </c>
@@ -8902,7 +8844,7 @@
       <c r="B90">
         <v>2018</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="28">
         <f t="shared" si="1"/>
         <v>43221</v>
       </c>
@@ -8926,7 +8868,7 @@
       <c r="B91">
         <v>2018</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="28">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
@@ -8950,7 +8892,7 @@
       <c r="B92">
         <v>2018</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="28">
         <f t="shared" si="1"/>
         <v>43282</v>
       </c>
@@ -8974,7 +8916,7 @@
       <c r="B93">
         <v>2018</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="28">
         <f t="shared" si="1"/>
         <v>43313</v>
       </c>
@@ -8998,7 +8940,7 @@
       <c r="B94">
         <v>2018</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="28">
         <f t="shared" si="1"/>
         <v>43344</v>
       </c>
@@ -9022,7 +8964,7 @@
       <c r="B95">
         <v>2018</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="28">
         <f t="shared" si="1"/>
         <v>43374</v>
       </c>
@@ -9046,7 +8988,7 @@
       <c r="B96">
         <v>2018</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="28">
         <f t="shared" si="1"/>
         <v>43405</v>
       </c>
@@ -9070,7 +9012,7 @@
       <c r="B97">
         <v>2018</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="28">
         <f t="shared" si="1"/>
         <v>43435</v>
       </c>
@@ -9094,7 +9036,7 @@
       <c r="B98">
         <v>2019</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="28">
         <f t="shared" si="1"/>
         <v>43466</v>
       </c>
@@ -9118,7 +9060,7 @@
       <c r="B99">
         <v>2019</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="28">
         <f t="shared" si="1"/>
         <v>43497</v>
       </c>
@@ -9142,7 +9084,7 @@
       <c r="B100">
         <v>2019</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="28">
         <f t="shared" si="1"/>
         <v>43525</v>
       </c>
@@ -9166,7 +9108,7 @@
       <c r="B101">
         <v>2019</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="28">
         <f t="shared" si="1"/>
         <v>43556</v>
       </c>
@@ -9190,7 +9132,7 @@
       <c r="B102">
         <v>2019</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="28">
         <f t="shared" si="1"/>
         <v>43586</v>
       </c>
@@ -9214,7 +9156,7 @@
       <c r="B103">
         <v>2019</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="28">
         <f t="shared" si="1"/>
         <v>43617</v>
       </c>
@@ -9238,7 +9180,7 @@
       <c r="B104">
         <v>2019</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="28">
         <f t="shared" si="1"/>
         <v>43647</v>
       </c>
@@ -9262,7 +9204,7 @@
       <c r="B105">
         <v>2019</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="28">
         <f t="shared" si="1"/>
         <v>43678</v>
       </c>
@@ -9286,7 +9228,7 @@
       <c r="B106">
         <v>2019</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="28">
         <f t="shared" si="1"/>
         <v>43709</v>
       </c>
@@ -9310,7 +9252,7 @@
       <c r="B107">
         <v>2019</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="28">
         <f t="shared" si="1"/>
         <v>43739</v>
       </c>
@@ -9334,7 +9276,7 @@
       <c r="B108">
         <v>2019</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="28">
         <f t="shared" si="1"/>
         <v>43770</v>
       </c>
@@ -9358,7 +9300,7 @@
       <c r="B109">
         <v>2019</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="28">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
